--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -836,6 +839,9 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['31', '45+1', '60']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1868,7 +1874,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1949,7 +1955,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ4">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,7 +2080,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2358,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0.6899999999999999</v>
@@ -2692,7 +2698,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -4546,7 +4552,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>2.57</v>
@@ -4752,7 +4758,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4958,7 +4964,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5164,7 +5170,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5448,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.69</v>
@@ -5576,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5782,7 +5788,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6194,7 +6200,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6275,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6400,7 +6406,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6812,7 +6818,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7018,7 +7024,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7224,7 +7230,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7430,7 +7436,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7508,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.46</v>
@@ -7636,7 +7642,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7842,7 +7848,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8254,7 +8260,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8335,7 +8341,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ35">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>2.59</v>
@@ -8872,7 +8878,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9078,7 +9084,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9284,7 +9290,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9490,7 +9496,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9980,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.57</v>
@@ -10314,7 +10320,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10520,7 +10526,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10601,7 +10607,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ46">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>1.09</v>
@@ -10726,7 +10732,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10932,7 +10938,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11344,7 +11350,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11756,7 +11762,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -12168,7 +12174,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12374,7 +12380,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12580,7 +12586,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12992,7 +12998,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13198,7 +13204,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13688,10 +13694,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -14022,7 +14028,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14434,7 +14440,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14640,7 +14646,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14846,7 +14852,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15052,7 +15058,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15258,7 +15264,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15670,7 +15676,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15751,7 +15757,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ71">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -15954,7 +15960,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>1.08</v>
@@ -16494,7 +16500,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16572,7 +16578,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -16700,7 +16706,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16781,7 +16787,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17730,7 +17736,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17936,7 +17942,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18635,7 +18641,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR85">
         <v>1.4</v>
@@ -18760,7 +18766,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19172,7 +19178,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19378,7 +19384,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19584,7 +19590,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19790,7 +19796,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20074,7 +20080,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20202,7 +20208,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -21232,7 +21238,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21438,7 +21444,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21850,7 +21856,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21931,7 +21937,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ101">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22056,7 +22062,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22262,7 +22268,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22752,7 +22758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -23704,7 +23710,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23910,7 +23916,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24116,7 +24122,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24322,7 +24328,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24528,7 +24534,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24609,7 +24615,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -25352,7 +25358,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25842,7 +25848,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.43</v>
@@ -26382,7 +26388,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26463,7 +26469,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26794,7 +26800,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -26872,7 +26878,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>1.07</v>
@@ -27412,7 +27418,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27618,7 +27624,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27824,7 +27830,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28236,7 +28242,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28854,7 +28860,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29060,7 +29066,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29266,7 +29272,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29344,7 +29350,7 @@
         <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.43</v>
@@ -29472,7 +29478,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29553,7 +29559,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29678,7 +29684,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -30502,7 +30508,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31326,7 +31332,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31532,7 +31538,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31738,7 +31744,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31944,7 +31950,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32022,7 +32028,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.69</v>
@@ -32150,7 +32156,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32768,7 +32774,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -32974,7 +32980,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33055,7 +33061,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ155">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR155">
         <v>1.75</v>
@@ -33386,7 +33392,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33592,7 +33598,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33798,7 +33804,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -34004,7 +34010,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34210,7 +34216,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34416,7 +34422,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34573,6 +34579,212 @@
       </c>
       <c r="BP162">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7844434</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45766.64583333334</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>193</v>
+      </c>
+      <c r="P163" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q163">
+        <v>3.5</v>
+      </c>
+      <c r="R163">
+        <v>2.13</v>
+      </c>
+      <c r="S163">
+        <v>2.86</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>2.89</v>
+      </c>
+      <c r="V163">
+        <v>2.73</v>
+      </c>
+      <c r="W163">
+        <v>1.4</v>
+      </c>
+      <c r="X163">
+        <v>6.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.09</v>
+      </c>
+      <c r="Z163">
+        <v>2.92</v>
+      </c>
+      <c r="AA163">
+        <v>3.32</v>
+      </c>
+      <c r="AB163">
+        <v>2.35</v>
+      </c>
+      <c r="AC163">
+        <v>1</v>
+      </c>
+      <c r="AD163">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE163">
+        <v>1.24</v>
+      </c>
+      <c r="AF163">
+        <v>3.36</v>
+      </c>
+      <c r="AG163">
+        <v>1.83</v>
+      </c>
+      <c r="AH163">
+        <v>1.91</v>
+      </c>
+      <c r="AI163">
+        <v>1.68</v>
+      </c>
+      <c r="AJ163">
+        <v>2.06</v>
+      </c>
+      <c r="AK163">
+        <v>1.58</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.39</v>
+      </c>
+      <c r="AN163">
+        <v>1.62</v>
+      </c>
+      <c r="AO163">
+        <v>2.46</v>
+      </c>
+      <c r="AP163">
+        <v>1.5</v>
+      </c>
+      <c r="AQ163">
+        <v>2.5</v>
+      </c>
+      <c r="AR163">
+        <v>1.74</v>
+      </c>
+      <c r="AS163">
+        <v>1.69</v>
+      </c>
+      <c r="AT163">
+        <v>3.43</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>9</v>
+      </c>
+      <c r="AW163">
+        <v>1</v>
+      </c>
+      <c r="AX163">
+        <v>16</v>
+      </c>
+      <c r="AY163">
+        <v>5</v>
+      </c>
+      <c r="AZ163">
+        <v>25</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>8</v>
+      </c>
+      <c r="BC163">
+        <v>13</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,7 +595,19 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['20', '44', '45+3']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['1', '25', '35']</t>
   </si>
   <si>
     <t>['5', '42', '80', '90+2']</t>
@@ -733,9 +745,6 @@
     <t>['57', '90+3']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['18', '30', '70']</t>
   </si>
   <si>
@@ -841,7 +850,16 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['65', '89']</t>
+  </si>
+  <si>
     <t>['31', '45+1', '60']</t>
+  </si>
+  <si>
+    <t>['54', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -1746,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1874,7 +1892,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2080,7 +2098,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2367,7 +2385,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2698,7 +2716,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2776,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -2985,7 +3003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3394,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3600,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -4221,7 +4239,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
@@ -4424,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ16">
         <v>1.43</v>
@@ -4552,7 +4570,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>2.57</v>
@@ -4630,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -4758,7 +4776,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4836,7 +4854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4964,7 +4982,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5045,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5170,7 +5188,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5457,7 +5475,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR21">
         <v>1.9</v>
@@ -5582,7 +5600,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5663,7 +5681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5788,7 +5806,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5866,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -6075,7 +6093,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ24">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR24">
         <v>2.32</v>
@@ -6200,7 +6218,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6278,7 +6296,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ25">
         <v>2.5</v>
@@ -6406,7 +6424,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6690,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6818,7 +6836,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7024,7 +7042,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7102,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
         <v>0.57</v>
@@ -7230,7 +7248,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7311,7 +7329,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7436,7 +7454,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7517,7 +7535,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7642,7 +7660,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7720,10 +7738,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR32">
         <v>1.38</v>
@@ -7848,7 +7866,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8132,10 +8150,10 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8260,7 +8278,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8338,7 +8356,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>2.5</v>
@@ -8878,7 +8896,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9084,7 +9102,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9165,7 +9183,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR39">
         <v>1.42</v>
@@ -9290,7 +9308,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9368,7 +9386,7 @@
         <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9496,7 +9514,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9577,7 +9595,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9783,7 +9801,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10192,7 +10210,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ44">
         <v>0.93</v>
@@ -10320,7 +10338,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10401,7 +10419,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ45">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10526,7 +10544,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10604,7 +10622,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10732,7 +10750,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10938,7 +10956,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11016,10 +11034,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -11222,7 +11240,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11350,7 +11368,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11637,7 +11655,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ51">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11762,7 +11780,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -11843,7 +11861,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR52">
         <v>1.35</v>
@@ -12046,10 +12064,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12174,7 +12192,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12252,7 +12270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12380,7 +12398,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12461,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12586,7 +12604,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12664,10 +12682,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12870,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ57">
         <v>0.93</v>
@@ -12998,7 +13016,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13076,10 +13094,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13204,7 +13222,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14028,7 +14046,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14312,10 +14330,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ64">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14440,7 +14458,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14646,7 +14664,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14724,10 +14742,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14852,7 +14870,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15058,7 +15076,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15136,7 +15154,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15264,7 +15282,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15345,7 +15363,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ69">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15548,7 +15566,7 @@
         <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15676,7 +15694,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15754,7 +15772,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>2.5</v>
@@ -15963,7 +15981,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16169,7 +16187,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR73">
         <v>1.4</v>
@@ -16500,7 +16518,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16706,7 +16724,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16784,7 +16802,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
         <v>2.5</v>
@@ -16993,7 +17011,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ77">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17196,7 +17214,7 @@
         <v>0.6</v>
       </c>
       <c r="AP78">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17611,7 +17629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -17736,7 +17754,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17814,10 +17832,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR81">
         <v>1.35</v>
@@ -17942,7 +17960,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18226,10 +18244,10 @@
         <v>1.17</v>
       </c>
       <c r="AP83">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18432,7 +18450,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18766,7 +18784,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18844,7 +18862,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19050,7 +19068,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87">
         <v>0.93</v>
@@ -19178,7 +19196,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19256,10 +19274,10 @@
         <v>0.57</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19384,7 +19402,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19590,7 +19608,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19671,7 +19689,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR90">
         <v>1.54</v>
@@ -19796,7 +19814,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19877,7 +19895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20208,7 +20226,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20286,10 +20304,10 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR93">
         <v>1.34</v>
@@ -20492,7 +20510,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ94">
         <v>1.43</v>
@@ -20701,7 +20719,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21113,7 +21131,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR97">
         <v>1.85</v>
@@ -21238,7 +21256,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21444,7 +21462,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21522,7 +21540,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
         <v>1.07</v>
@@ -21728,10 +21746,10 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -21856,7 +21874,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22062,7 +22080,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22268,7 +22286,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22346,10 +22364,10 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22552,10 +22570,10 @@
         <v>0.63</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR104">
         <v>1.71</v>
@@ -22761,7 +22779,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR105">
         <v>1.8</v>
@@ -23376,10 +23394,10 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23710,7 +23728,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23788,7 +23806,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -23916,7 +23934,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -23994,7 +24012,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
         <v>0.71</v>
@@ -24122,7 +24140,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24200,7 +24218,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112">
         <v>1.07</v>
@@ -24328,7 +24346,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24409,7 +24427,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR113">
         <v>1.8</v>
@@ -24534,7 +24552,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24821,7 +24839,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25230,10 +25248,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR117">
         <v>1.75</v>
@@ -25358,7 +25376,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25642,10 +25660,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ119">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR119">
         <v>1.56</v>
@@ -26057,7 +26075,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26388,7 +26406,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26800,7 +26818,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27084,7 +27102,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ126">
         <v>0.57</v>
@@ -27293,7 +27311,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ127">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR127">
         <v>1.51</v>
@@ -27418,7 +27436,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27624,7 +27642,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27702,10 +27720,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR129">
         <v>1.8</v>
@@ -27830,7 +27848,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28114,10 +28132,10 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ131">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR131">
         <v>1.76</v>
@@ -28242,7 +28260,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28320,10 +28338,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ132">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR132">
         <v>1.4</v>
@@ -28526,10 +28544,10 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28860,7 +28878,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -28938,7 +28956,7 @@
         <v>0.55</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ135">
         <v>0.71</v>
@@ -29066,7 +29084,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29147,7 +29165,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ136">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29272,7 +29290,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29478,7 +29496,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29684,7 +29702,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29968,10 +29986,10 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR140">
         <v>1.45</v>
@@ -30174,10 +30192,10 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR141">
         <v>1.49</v>
@@ -30380,10 +30398,10 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ142">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR142">
         <v>1.77</v>
@@ -30508,7 +30526,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30998,10 +31016,10 @@
         <v>1.09</v>
       </c>
       <c r="AP145">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR145">
         <v>1.76</v>
@@ -31332,7 +31350,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31410,10 +31428,10 @@
         <v>0.5</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ147">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31538,7 +31556,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31744,7 +31762,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31950,7 +31968,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32031,7 +32049,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR150">
         <v>1.75</v>
@@ -32156,7 +32174,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32443,7 +32461,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR152">
         <v>1.59</v>
@@ -32646,7 +32664,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ153">
         <v>0.93</v>
@@ -32774,7 +32792,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -32852,7 +32870,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -32980,7 +32998,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33392,7 +33410,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33598,7 +33616,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33676,7 +33694,7 @@
         <v>0.54</v>
       </c>
       <c r="AP158">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ158">
         <v>0.57</v>
@@ -33804,7 +33822,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -33882,7 +33900,7 @@
         <v>1.92</v>
       </c>
       <c r="AP159">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
         <v>2</v>
@@ -34010,7 +34028,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34091,7 +34109,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -34216,7 +34234,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34422,7 +34440,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34586,7 +34604,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7844434</v>
+        <v>7844438</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34595,31 +34613,31 @@
         <v>69</v>
       </c>
       <c r="E163" s="2">
-        <v>45766.64583333334</v>
+        <v>45766.54166666666</v>
       </c>
       <c r="F163">
         <v>6</v>
       </c>
       <c r="G163" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>3</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N163">
         <v>5</v>
@@ -34628,49 +34646,49 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q163">
-        <v>3.5</v>
+        <v>2.73</v>
       </c>
       <c r="R163">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="S163">
-        <v>2.86</v>
+        <v>3.88</v>
       </c>
       <c r="T163">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U163">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="V163">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="W163">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X163">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y163">
         <v>1.09</v>
       </c>
       <c r="Z163">
-        <v>2.92</v>
+        <v>2.09</v>
       </c>
       <c r="AA163">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="AB163">
-        <v>2.35</v>
+        <v>3.38</v>
       </c>
       <c r="AC163">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD163">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AE163">
         <v>1.24</v>
@@ -34679,112 +34697,1142 @@
         <v>3.36</v>
       </c>
       <c r="AG163">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AH163">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AI163">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AJ163">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AK163">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AL163">
         <v>1.3</v>
       </c>
       <c r="AM163">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AN163">
         <v>1.62</v>
       </c>
       <c r="AO163">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP163">
+        <v>1.71</v>
+      </c>
+      <c r="AQ163">
+        <v>0.64</v>
+      </c>
+      <c r="AR163">
+        <v>1.53</v>
+      </c>
+      <c r="AS163">
+        <v>1.17</v>
+      </c>
+      <c r="AT163">
+        <v>2.7</v>
+      </c>
+      <c r="AU163">
+        <v>9</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>10</v>
+      </c>
+      <c r="AY163">
+        <v>16</v>
+      </c>
+      <c r="AZ163">
+        <v>16</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>3</v>
+      </c>
+      <c r="BC163">
+        <v>10</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7844435</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>194</v>
+      </c>
+      <c r="P164" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q164">
+        <v>3.3</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>3.08</v>
+      </c>
+      <c r="T164">
+        <v>1.36</v>
+      </c>
+      <c r="U164">
+        <v>2.89</v>
+      </c>
+      <c r="V164">
+        <v>2.65</v>
+      </c>
+      <c r="W164">
+        <v>1.42</v>
+      </c>
+      <c r="X164">
+        <v>6.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.09</v>
+      </c>
+      <c r="Z164">
+        <v>2.77</v>
+      </c>
+      <c r="AA164">
+        <v>3.28</v>
+      </c>
+      <c r="AB164">
+        <v>2.48</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
+        <v>1.21</v>
+      </c>
+      <c r="AF164">
+        <v>3.6</v>
+      </c>
+      <c r="AG164">
+        <v>1.83</v>
+      </c>
+      <c r="AH164">
+        <v>1.91</v>
+      </c>
+      <c r="AI164">
+        <v>1.64</v>
+      </c>
+      <c r="AJ164">
+        <v>2.12</v>
+      </c>
+      <c r="AK164">
+        <v>1.51</v>
+      </c>
+      <c r="AL164">
+        <v>1.31</v>
+      </c>
+      <c r="AM164">
+        <v>1.44</v>
+      </c>
+      <c r="AN164">
+        <v>1.31</v>
+      </c>
+      <c r="AO164">
+        <v>1.69</v>
+      </c>
+      <c r="AP164">
+        <v>1.29</v>
+      </c>
+      <c r="AQ164">
+        <v>1.64</v>
+      </c>
+      <c r="AR164">
+        <v>1.66</v>
+      </c>
+      <c r="AS164">
+        <v>1.47</v>
+      </c>
+      <c r="AT164">
+        <v>3.13</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>13</v>
+      </c>
+      <c r="AY164">
+        <v>15</v>
+      </c>
+      <c r="AZ164">
+        <v>18</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>8</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7844436</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>195</v>
+      </c>
+      <c r="P165" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q165">
+        <v>2.73</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>3.82</v>
+      </c>
+      <c r="T165">
+        <v>1.38</v>
+      </c>
+      <c r="U165">
+        <v>2.81</v>
+      </c>
+      <c r="V165">
+        <v>2.85</v>
+      </c>
+      <c r="W165">
+        <v>1.37</v>
+      </c>
+      <c r="X165">
+        <v>7.1</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.22</v>
+      </c>
+      <c r="AA165">
+        <v>3.47</v>
+      </c>
+      <c r="AB165">
+        <v>3.01</v>
+      </c>
+      <c r="AC165">
+        <v>1</v>
+      </c>
+      <c r="AD165">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE165">
+        <v>1.26</v>
+      </c>
+      <c r="AF165">
+        <v>3.22</v>
+      </c>
+      <c r="AG165">
+        <v>1.94</v>
+      </c>
+      <c r="AH165">
+        <v>1.8</v>
+      </c>
+      <c r="AI165">
+        <v>1.75</v>
+      </c>
+      <c r="AJ165">
+        <v>1.96</v>
+      </c>
+      <c r="AK165">
+        <v>1.33</v>
+      </c>
+      <c r="AL165">
+        <v>1.3</v>
+      </c>
+      <c r="AM165">
+        <v>1.67</v>
+      </c>
+      <c r="AN165">
+        <v>1.46</v>
+      </c>
+      <c r="AO165">
+        <v>0.46</v>
+      </c>
+      <c r="AP165">
+        <v>1.57</v>
+      </c>
+      <c r="AQ165">
+        <v>0.43</v>
+      </c>
+      <c r="AR165">
+        <v>1.44</v>
+      </c>
+      <c r="AS165">
+        <v>1.22</v>
+      </c>
+      <c r="AT165">
+        <v>2.66</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>10</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>6</v>
+      </c>
+      <c r="BC165">
+        <v>12</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7844434</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45766.64583333334</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H166" t="s">
+        <v>78</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>196</v>
+      </c>
+      <c r="P166" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q166">
+        <v>3.5</v>
+      </c>
+      <c r="R166">
+        <v>2.13</v>
+      </c>
+      <c r="S166">
+        <v>2.86</v>
+      </c>
+      <c r="T166">
+        <v>1.36</v>
+      </c>
+      <c r="U166">
+        <v>2.89</v>
+      </c>
+      <c r="V166">
+        <v>2.73</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.09</v>
+      </c>
+      <c r="Z166">
+        <v>2.92</v>
+      </c>
+      <c r="AA166">
+        <v>3.32</v>
+      </c>
+      <c r="AB166">
+        <v>2.35</v>
+      </c>
+      <c r="AC166">
+        <v>1</v>
+      </c>
+      <c r="AD166">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE166">
+        <v>1.24</v>
+      </c>
+      <c r="AF166">
+        <v>3.36</v>
+      </c>
+      <c r="AG166">
+        <v>1.83</v>
+      </c>
+      <c r="AH166">
+        <v>1.91</v>
+      </c>
+      <c r="AI166">
+        <v>1.68</v>
+      </c>
+      <c r="AJ166">
+        <v>2.06</v>
+      </c>
+      <c r="AK166">
+        <v>1.58</v>
+      </c>
+      <c r="AL166">
+        <v>1.3</v>
+      </c>
+      <c r="AM166">
+        <v>1.39</v>
+      </c>
+      <c r="AN166">
+        <v>1.62</v>
+      </c>
+      <c r="AO166">
         <v>2.46</v>
       </c>
-      <c r="AP163">
+      <c r="AP166">
         <v>1.5</v>
       </c>
-      <c r="AQ163">
+      <c r="AQ166">
         <v>2.5</v>
       </c>
-      <c r="AR163">
+      <c r="AR166">
         <v>1.74</v>
       </c>
-      <c r="AS163">
+      <c r="AS166">
         <v>1.69</v>
       </c>
-      <c r="AT163">
+      <c r="AT166">
         <v>3.43</v>
       </c>
-      <c r="AU163">
+      <c r="AU166">
         <v>4</v>
       </c>
-      <c r="AV163">
+      <c r="AV166">
         <v>9</v>
       </c>
-      <c r="AW163">
-        <v>1</v>
-      </c>
-      <c r="AX163">
+      <c r="AW166">
+        <v>1</v>
+      </c>
+      <c r="AX166">
         <v>16</v>
       </c>
-      <c r="AY163">
+      <c r="AY166">
         <v>5</v>
       </c>
-      <c r="AZ163">
+      <c r="AZ166">
         <v>25</v>
       </c>
-      <c r="BA163">
+      <c r="BA166">
         <v>5</v>
       </c>
-      <c r="BB163">
+      <c r="BB166">
         <v>8</v>
       </c>
-      <c r="BC163">
+      <c r="BC166">
         <v>13</v>
       </c>
-      <c r="BD163">
-        <v>0</v>
-      </c>
-      <c r="BE163">
-        <v>0</v>
-      </c>
-      <c r="BF163">
-        <v>0</v>
-      </c>
-      <c r="BG163">
-        <v>0</v>
-      </c>
-      <c r="BH163">
-        <v>0</v>
-      </c>
-      <c r="BI163">
-        <v>0</v>
-      </c>
-      <c r="BJ163">
-        <v>0</v>
-      </c>
-      <c r="BK163">
-        <v>0</v>
-      </c>
-      <c r="BL163">
-        <v>0</v>
-      </c>
-      <c r="BM163">
-        <v>0</v>
-      </c>
-      <c r="BN163">
-        <v>0</v>
-      </c>
-      <c r="BO163">
-        <v>0</v>
-      </c>
-      <c r="BP163">
-        <v>0</v>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7844433</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45767.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>79</v>
+      </c>
+      <c r="H167" t="s">
+        <v>73</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167" t="s">
+        <v>197</v>
+      </c>
+      <c r="P167" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q167">
+        <v>2.23</v>
+      </c>
+      <c r="R167">
+        <v>2.32</v>
+      </c>
+      <c r="S167">
+        <v>4.45</v>
+      </c>
+      <c r="T167">
+        <v>1.28</v>
+      </c>
+      <c r="U167">
+        <v>3.34</v>
+      </c>
+      <c r="V167">
+        <v>2.39</v>
+      </c>
+      <c r="W167">
+        <v>1.51</v>
+      </c>
+      <c r="X167">
+        <v>5.3</v>
+      </c>
+      <c r="Y167">
+        <v>1.14</v>
+      </c>
+      <c r="Z167">
+        <v>1.72</v>
+      </c>
+      <c r="AA167">
+        <v>4</v>
+      </c>
+      <c r="AB167">
+        <v>4.2</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>11</v>
+      </c>
+      <c r="AE167">
+        <v>1.14</v>
+      </c>
+      <c r="AF167">
+        <v>4.33</v>
+      </c>
+      <c r="AG167">
+        <v>1.57</v>
+      </c>
+      <c r="AH167">
+        <v>2.15</v>
+      </c>
+      <c r="AI167">
+        <v>1.6</v>
+      </c>
+      <c r="AJ167">
+        <v>2.19</v>
+      </c>
+      <c r="AK167">
+        <v>1.21</v>
+      </c>
+      <c r="AL167">
+        <v>1.23</v>
+      </c>
+      <c r="AM167">
+        <v>2.08</v>
+      </c>
+      <c r="AN167">
+        <v>1.46</v>
+      </c>
+      <c r="AO167">
+        <v>1.25</v>
+      </c>
+      <c r="AP167">
+        <v>1.57</v>
+      </c>
+      <c r="AQ167">
+        <v>1.15</v>
+      </c>
+      <c r="AR167">
+        <v>1.81</v>
+      </c>
+      <c r="AS167">
+        <v>1.18</v>
+      </c>
+      <c r="AT167">
+        <v>2.99</v>
+      </c>
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>9</v>
+      </c>
+      <c r="AW167">
+        <v>9</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>16</v>
+      </c>
+      <c r="AZ167">
+        <v>12</v>
+      </c>
+      <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>6</v>
+      </c>
+      <c r="BC167">
+        <v>11</v>
+      </c>
+      <c r="BD167">
+        <v>1.59</v>
+      </c>
+      <c r="BE167">
+        <v>8.9</v>
+      </c>
+      <c r="BF167">
+        <v>2.75</v>
+      </c>
+      <c r="BG167">
+        <v>1.19</v>
+      </c>
+      <c r="BH167">
+        <v>3.98</v>
+      </c>
+      <c r="BI167">
+        <v>1.32</v>
+      </c>
+      <c r="BJ167">
+        <v>2.88</v>
+      </c>
+      <c r="BK167">
+        <v>1.58</v>
+      </c>
+      <c r="BL167">
+        <v>2.17</v>
+      </c>
+      <c r="BM167">
+        <v>1.99</v>
+      </c>
+      <c r="BN167">
+        <v>1.73</v>
+      </c>
+      <c r="BO167">
+        <v>2.57</v>
+      </c>
+      <c r="BP167">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7844437</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45767.54166666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>82</v>
+      </c>
+      <c r="P168" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q168">
+        <v>2.71</v>
+      </c>
+      <c r="R168">
+        <v>2.02</v>
+      </c>
+      <c r="S168">
+        <v>4.15</v>
+      </c>
+      <c r="T168">
+        <v>1.42</v>
+      </c>
+      <c r="U168">
+        <v>2.65</v>
+      </c>
+      <c r="V168">
+        <v>2.94</v>
+      </c>
+      <c r="W168">
+        <v>1.35</v>
+      </c>
+      <c r="X168">
+        <v>7.4</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>2.07</v>
+      </c>
+      <c r="AA168">
+        <v>3.37</v>
+      </c>
+      <c r="AB168">
+        <v>3.45</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>9</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>1.91</v>
+      </c>
+      <c r="AH168">
+        <v>1.83</v>
+      </c>
+      <c r="AI168">
+        <v>1.79</v>
+      </c>
+      <c r="AJ168">
+        <v>1.92</v>
+      </c>
+      <c r="AK168">
+        <v>1.28</v>
+      </c>
+      <c r="AL168">
+        <v>1.32</v>
+      </c>
+      <c r="AM168">
+        <v>1.71</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>1.08</v>
+      </c>
+      <c r="AP168">
+        <v>0.93</v>
+      </c>
+      <c r="AQ168">
+        <v>1.21</v>
+      </c>
+      <c r="AR168">
+        <v>1.37</v>
+      </c>
+      <c r="AS168">
+        <v>1.28</v>
+      </c>
+      <c r="AT168">
+        <v>2.65</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>8</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>1.61</v>
+      </c>
+      <c r="BE168">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF168">
+        <v>2.7</v>
+      </c>
+      <c r="BG168">
+        <v>1.19</v>
+      </c>
+      <c r="BH168">
+        <v>3.8</v>
+      </c>
+      <c r="BI168">
+        <v>1.39</v>
+      </c>
+      <c r="BJ168">
+        <v>2.67</v>
+      </c>
+      <c r="BK168">
+        <v>1.7</v>
+      </c>
+      <c r="BL168">
+        <v>2.03</v>
+      </c>
+      <c r="BM168">
+        <v>2.14</v>
+      </c>
+      <c r="BN168">
+        <v>1.6</v>
+      </c>
+      <c r="BO168">
+        <v>2.78</v>
+      </c>
+      <c r="BP168">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -34757,13 +34757,13 @@
         <v>16</v>
       </c>
       <c r="BA163">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB163">
         <v>3</v>
       </c>
       <c r="BC163">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD163">
         <v>0</v>
@@ -35169,13 +35169,13 @@
         <v>9</v>
       </c>
       <c r="BA165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC165">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD165">
         <v>0</v>
@@ -35360,13 +35360,13 @@
         <v>4</v>
       </c>
       <c r="AV166">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW166">
         <v>1</v>
       </c>
       <c r="AX166">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AY166">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1221,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3003,7 +3003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.93</v>
@@ -5063,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -6090,7 +6090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.64</v>
@@ -6711,7 +6711,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7944,7 +7944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.71</v>
@@ -11037,7 +11037,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -11652,7 +11652,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.21</v>
@@ -13097,7 +13097,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13918,7 +13918,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -14536,7 +14536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14745,7 +14745,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -15360,7 +15360,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.43</v>
@@ -18247,7 +18247,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -19480,7 +19480,7 @@
         <v>2.14</v>
       </c>
       <c r="AP89">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>2</v>
@@ -20719,7 +20719,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ95">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21952,7 +21952,7 @@
         <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>2.5</v>
@@ -22779,7 +22779,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.8</v>
@@ -24424,10 +24424,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR113">
         <v>1.8</v>
@@ -26075,7 +26075,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26690,7 +26690,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
         <v>1.43</v>
@@ -28750,7 +28750,7 @@
         <v>1.18</v>
       </c>
       <c r="AP134">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>1.07</v>
@@ -31019,7 +31019,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR145">
         <v>1.76</v>
@@ -33076,7 +33076,7 @@
         <v>2.42</v>
       </c>
       <c r="AP155">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
         <v>2.5</v>
@@ -35551,7 +35551,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ167">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR167">
         <v>1.81</v>
@@ -35833,6 +35833,212 @@
       </c>
       <c r="BP168">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7844428</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45770.54166666666</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>82</v>
+      </c>
+      <c r="P169" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q169">
+        <v>2.26</v>
+      </c>
+      <c r="R169">
+        <v>2.28</v>
+      </c>
+      <c r="S169">
+        <v>4.45</v>
+      </c>
+      <c r="T169">
+        <v>1.31</v>
+      </c>
+      <c r="U169">
+        <v>3.15</v>
+      </c>
+      <c r="V169">
+        <v>2.47</v>
+      </c>
+      <c r="W169">
+        <v>1.48</v>
+      </c>
+      <c r="X169">
+        <v>5.7</v>
+      </c>
+      <c r="Y169">
+        <v>1.12</v>
+      </c>
+      <c r="Z169">
+        <v>1.98</v>
+      </c>
+      <c r="AA169">
+        <v>3.74</v>
+      </c>
+      <c r="AB169">
+        <v>3.35</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AD169">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE169">
+        <v>1.18</v>
+      </c>
+      <c r="AF169">
+        <v>3.86</v>
+      </c>
+      <c r="AG169">
+        <v>1.79</v>
+      </c>
+      <c r="AH169">
+        <v>1.95</v>
+      </c>
+      <c r="AI169">
+        <v>1.66</v>
+      </c>
+      <c r="AJ169">
+        <v>2.09</v>
+      </c>
+      <c r="AK169">
+        <v>1.21</v>
+      </c>
+      <c r="AL169">
+        <v>1.24</v>
+      </c>
+      <c r="AM169">
+        <v>2.05</v>
+      </c>
+      <c r="AN169">
+        <v>2.08</v>
+      </c>
+      <c r="AO169">
+        <v>1.15</v>
+      </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
+      <c r="AQ169">
+        <v>1.14</v>
+      </c>
+      <c r="AR169">
+        <v>1.73</v>
+      </c>
+      <c r="AS169">
+        <v>1.24</v>
+      </c>
+      <c r="AT169">
+        <v>2.97</v>
+      </c>
+      <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>13</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>17</v>
+      </c>
+      <c r="AZ169">
+        <v>7</v>
+      </c>
+      <c r="BA169">
+        <v>13</v>
+      </c>
+      <c r="BB169">
+        <v>2</v>
+      </c>
+      <c r="BC169">
+        <v>15</v>
+      </c>
+      <c r="BD169">
+        <v>1.45</v>
+      </c>
+      <c r="BE169">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF169">
+        <v>3.25</v>
+      </c>
+      <c r="BG169">
+        <v>1.21</v>
+      </c>
+      <c r="BH169">
+        <v>3.78</v>
+      </c>
+      <c r="BI169">
+        <v>1.35</v>
+      </c>
+      <c r="BJ169">
+        <v>2.74</v>
+      </c>
+      <c r="BK169">
+        <v>1.82</v>
+      </c>
+      <c r="BL169">
+        <v>1.98</v>
+      </c>
+      <c r="BM169">
+        <v>2.09</v>
+      </c>
+      <c r="BN169">
+        <v>1.66</v>
+      </c>
+      <c r="BO169">
+        <v>2.71</v>
+      </c>
+      <c r="BP169">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['1', '25', '35']</t>
   </si>
   <si>
+    <t>['58', '66']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -860,6 +863,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['2', '33']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1892,7 +1898,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2098,7 +2104,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2591,7 +2597,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2716,7 +2722,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -4570,7 +4576,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.57</v>
@@ -4776,7 +4782,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4982,7 +4988,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5188,7 +5194,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5266,10 +5272,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5600,7 +5606,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5806,7 +5812,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6218,7 +6224,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6424,7 +6430,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6836,7 +6842,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7042,7 +7048,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7123,7 +7129,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.86</v>
@@ -7248,7 +7254,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7454,7 +7460,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7660,7 +7666,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7866,7 +7872,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8278,7 +8284,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8896,7 +8902,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8974,7 +8980,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9102,7 +9108,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9308,7 +9314,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9514,7 +9520,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10007,7 +10013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10338,7 +10344,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10544,7 +10550,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10750,7 +10756,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10828,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>1.07</v>
@@ -10956,7 +10962,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11368,7 +11374,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11780,7 +11786,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -12192,7 +12198,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12398,7 +12404,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12604,7 +12610,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -13016,7 +13022,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13222,7 +13228,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13506,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ60">
         <v>0.71</v>
@@ -13921,7 +13927,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14046,7 +14052,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14458,7 +14464,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14664,7 +14670,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14870,7 +14876,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14948,7 +14954,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15076,7 +15082,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15282,7 +15288,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15694,7 +15700,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16518,7 +16524,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16724,7 +16730,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17217,7 +17223,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17626,7 +17632,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>0.43</v>
@@ -17754,7 +17760,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17960,7 +17966,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18453,7 +18459,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18784,7 +18790,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19402,7 +19408,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19608,7 +19614,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19814,7 +19820,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19892,7 +19898,7 @@
         <v>1.71</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
         <v>1.64</v>
@@ -20226,7 +20232,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20925,7 +20931,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR96">
         <v>1.73</v>
@@ -21256,7 +21262,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21462,7 +21468,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21874,7 +21880,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22080,7 +22086,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22286,7 +22292,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22982,7 +22988,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106">
         <v>0.93</v>
@@ -23603,7 +23609,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23728,7 +23734,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23934,7 +23940,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24140,7 +24146,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24346,7 +24352,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24552,7 +24558,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24836,7 +24842,7 @@
         <v>1.11</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115">
         <v>1.21</v>
@@ -25045,7 +25051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25376,7 +25382,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -26406,7 +26412,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26484,7 +26490,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>2.5</v>
@@ -26818,7 +26824,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27105,7 +27111,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR126">
         <v>1.44</v>
@@ -27436,7 +27442,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27642,7 +27648,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27848,7 +27854,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28260,7 +28266,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28878,7 +28884,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29084,7 +29090,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29290,7 +29296,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29496,7 +29502,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29702,7 +29708,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29780,7 +29786,7 @@
         <v>0.91</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
         <v>0.93</v>
@@ -30526,7 +30532,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30813,7 +30819,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ144">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR144">
         <v>1.44</v>
@@ -31350,7 +31356,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31556,7 +31562,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31762,7 +31768,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31968,7 +31974,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32174,7 +32180,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32458,7 +32464,7 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152">
         <v>1.21</v>
@@ -32792,7 +32798,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -32998,7 +33004,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33410,7 +33416,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33491,7 +33497,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR157">
         <v>1.52</v>
@@ -33616,7 +33622,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33697,7 +33703,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ158">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33822,7 +33828,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -34028,7 +34034,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34106,7 +34112,7 @@
         <v>0.42</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160">
         <v>0.43</v>
@@ -34234,7 +34240,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34440,7 +34446,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34646,7 +34652,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -35264,7 +35270,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35470,7 +35476,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35676,7 +35682,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36039,6 +36045,212 @@
       </c>
       <c r="BP169">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7844444</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>77</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>198</v>
+      </c>
+      <c r="P170" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q170">
+        <v>2.51</v>
+      </c>
+      <c r="R170">
+        <v>2.11</v>
+      </c>
+      <c r="S170">
+        <v>4.3</v>
+      </c>
+      <c r="T170">
+        <v>1.38</v>
+      </c>
+      <c r="U170">
+        <v>2.81</v>
+      </c>
+      <c r="V170">
+        <v>2.73</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>6.7</v>
+      </c>
+      <c r="Y170">
+        <v>1.09</v>
+      </c>
+      <c r="Z170">
+        <v>1.96</v>
+      </c>
+      <c r="AA170">
+        <v>3.47</v>
+      </c>
+      <c r="AB170">
+        <v>3.68</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>8.6</v>
+      </c>
+      <c r="AE170">
+        <v>1.25</v>
+      </c>
+      <c r="AF170">
+        <v>3.28</v>
+      </c>
+      <c r="AG170">
+        <v>1.87</v>
+      </c>
+      <c r="AH170">
+        <v>1.87</v>
+      </c>
+      <c r="AI170">
+        <v>1.74</v>
+      </c>
+      <c r="AJ170">
+        <v>1.98</v>
+      </c>
+      <c r="AK170">
+        <v>1.26</v>
+      </c>
+      <c r="AL170">
+        <v>1.28</v>
+      </c>
+      <c r="AM170">
+        <v>1.81</v>
+      </c>
+      <c r="AN170">
+        <v>1.5</v>
+      </c>
+      <c r="AO170">
+        <v>0.57</v>
+      </c>
+      <c r="AP170">
+        <v>1.47</v>
+      </c>
+      <c r="AQ170">
+        <v>0.6</v>
+      </c>
+      <c r="AR170">
+        <v>1.59</v>
+      </c>
+      <c r="AS170">
+        <v>1.15</v>
+      </c>
+      <c r="AT170">
+        <v>2.74</v>
+      </c>
+      <c r="AU170">
+        <v>8</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>13</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>21</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>11</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
+        <v>17</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>0</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -35981,19 +35981,19 @@
         <v>2.97</v>
       </c>
       <c r="AU169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV169">
         <v>4</v>
       </c>
       <c r="AW169">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX169">
         <v>3</v>
       </c>
       <c r="AY169">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ169">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,12 @@
     <t>['58', '66']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['2', '86']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -620,9 +626,6 @@
   </si>
   <si>
     <t>['90+3']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['32', '53', '90+5']</t>
@@ -866,6 +869,12 @@
   </si>
   <si>
     <t>['2', '33']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1576,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1898,7 +1907,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1979,7 +1988,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ4">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2104,7 +2113,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2182,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2594,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2722,7 +2731,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3418,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.21</v>
@@ -3833,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4036,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
         <v>1.07</v>
@@ -4242,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
         <v>0.64</v>
@@ -4576,7 +4585,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.57</v>
@@ -4782,7 +4791,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4988,7 +4997,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5194,7 +5203,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5606,7 +5615,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5684,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
         <v>1.21</v>
@@ -5812,7 +5821,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6224,7 +6233,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6305,7 +6314,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ25">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6430,7 +6439,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6508,10 +6517,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR26">
         <v>1.13</v>
@@ -6842,7 +6851,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6923,7 +6932,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ28">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7048,7 +7057,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7254,7 +7263,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7460,7 +7469,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7666,7 +7675,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7872,7 +7881,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8284,7 +8293,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8362,10 +8371,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR35">
         <v>2.59</v>
@@ -8568,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8774,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8902,7 +8911,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9108,7 +9117,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9186,7 +9195,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>1.64</v>
@@ -9314,7 +9323,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9520,7 +9529,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10219,7 +10228,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10344,7 +10353,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10550,7 +10559,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10631,7 +10640,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
         <v>1.09</v>
@@ -10756,7 +10765,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10962,7 +10971,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11246,7 +11255,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11374,7 +11383,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11452,7 +11461,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0.71</v>
@@ -11786,7 +11795,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -11864,7 +11873,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
         <v>0.43</v>
@@ -12198,7 +12207,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12404,7 +12413,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12610,7 +12619,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12688,7 +12697,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.64</v>
@@ -12897,7 +12906,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ57">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR57">
         <v>1.64</v>
@@ -13022,7 +13031,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13228,7 +13237,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13306,7 +13315,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13721,7 +13730,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -14052,7 +14061,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14464,7 +14473,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14670,7 +14679,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14748,7 +14757,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -14876,7 +14885,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15082,7 +15091,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15288,7 +15297,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15572,7 +15581,7 @@
         <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15700,7 +15709,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15781,7 +15790,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ71">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16190,7 +16199,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ73">
         <v>0.64</v>
@@ -16524,7 +16533,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16605,7 +16614,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR75">
         <v>1.7</v>
@@ -16730,7 +16739,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16811,7 +16820,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17014,7 +17023,7 @@
         <v>2.2</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
         <v>1.64</v>
@@ -17760,7 +17769,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17966,7 +17975,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18456,7 +18465,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>0.6</v>
@@ -18662,10 +18671,10 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ85">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1.4</v>
@@ -18790,7 +18799,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19074,10 +19083,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR87">
         <v>1.54</v>
@@ -19408,7 +19417,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19614,7 +19623,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19692,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ90">
         <v>1.21</v>
@@ -19820,7 +19829,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20232,7 +20241,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -21262,7 +21271,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21340,7 +21349,7 @@
         <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>2</v>
@@ -21468,7 +21477,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21880,7 +21889,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21961,7 +21970,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22086,7 +22095,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22164,7 +22173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
         <v>0.71</v>
@@ -22292,7 +22301,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22370,7 +22379,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
         <v>0.64</v>
@@ -22991,7 +23000,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR106">
         <v>1.51</v>
@@ -23734,7 +23743,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23940,7 +23949,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24018,7 +24027,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
         <v>0.71</v>
@@ -24146,7 +24155,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24352,7 +24361,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24558,7 +24567,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24636,10 +24645,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -25048,7 +25057,7 @@
         <v>0.44</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -25382,7 +25391,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25463,7 +25472,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR118">
         <v>1.86</v>
@@ -26078,7 +26087,7 @@
         <v>1.2</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
         <v>1.14</v>
@@ -26412,7 +26421,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26493,7 +26502,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26824,7 +26833,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27442,7 +27451,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27648,7 +27657,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27854,7 +27863,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -27932,10 +27941,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ130">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28138,7 +28147,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
         <v>0.43</v>
@@ -28266,7 +28275,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28884,7 +28893,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29090,7 +29099,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29168,7 +29177,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136">
         <v>1.21</v>
@@ -29296,7 +29305,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29502,7 +29511,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29580,10 +29589,10 @@
         <v>2.36</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ138">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29708,7 +29717,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29789,7 +29798,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR139">
         <v>1.57</v>
@@ -30404,7 +30413,7 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.64</v>
@@ -30532,7 +30541,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31356,7 +31365,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31562,7 +31571,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31640,7 +31649,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ148">
         <v>0.71</v>
@@ -31768,7 +31777,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31846,7 +31855,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>1.43</v>
@@ -31974,7 +31983,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32180,7 +32189,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32261,7 +32270,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32673,7 +32682,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ153">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR153">
         <v>1.44</v>
@@ -32798,7 +32807,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -32876,7 +32885,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33004,7 +33013,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33085,7 +33094,7 @@
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR155">
         <v>1.75</v>
@@ -33288,7 +33297,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
         <v>2</v>
@@ -33416,7 +33425,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33494,7 +33503,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ157">
         <v>0.6</v>
@@ -33622,7 +33631,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33828,7 +33837,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -34034,7 +34043,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34240,7 +34249,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34446,7 +34455,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34652,7 +34661,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -35270,7 +35279,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35351,7 +35360,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -35476,7 +35485,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35554,7 +35563,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167">
         <v>1.14</v>
@@ -35682,7 +35691,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36094,7 +36103,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36250,6 +36259,624 @@
         <v>0</v>
       </c>
       <c r="BP170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7844440</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>71</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>168</v>
+      </c>
+      <c r="P171" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q171">
+        <v>2.47</v>
+      </c>
+      <c r="R171">
+        <v>2.13</v>
+      </c>
+      <c r="S171">
+        <v>4.33</v>
+      </c>
+      <c r="T171">
+        <v>1.37</v>
+      </c>
+      <c r="U171">
+        <v>2.85</v>
+      </c>
+      <c r="V171">
+        <v>2.65</v>
+      </c>
+      <c r="W171">
+        <v>1.42</v>
+      </c>
+      <c r="X171">
+        <v>6.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.09</v>
+      </c>
+      <c r="Z171">
+        <v>2.09</v>
+      </c>
+      <c r="AA171">
+        <v>3.35</v>
+      </c>
+      <c r="AB171">
+        <v>3.4</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>8.9</v>
+      </c>
+      <c r="AE171">
+        <v>1.23</v>
+      </c>
+      <c r="AF171">
+        <v>3.44</v>
+      </c>
+      <c r="AG171">
+        <v>1.91</v>
+      </c>
+      <c r="AH171">
+        <v>1.83</v>
+      </c>
+      <c r="AI171">
+        <v>1.71</v>
+      </c>
+      <c r="AJ171">
+        <v>2.02</v>
+      </c>
+      <c r="AK171">
+        <v>1.25</v>
+      </c>
+      <c r="AL171">
+        <v>1.28</v>
+      </c>
+      <c r="AM171">
+        <v>1.85</v>
+      </c>
+      <c r="AN171">
+        <v>1.5</v>
+      </c>
+      <c r="AO171">
+        <v>1.07</v>
+      </c>
+      <c r="AP171">
+        <v>1.47</v>
+      </c>
+      <c r="AQ171">
+        <v>1.07</v>
+      </c>
+      <c r="AR171">
+        <v>1.57</v>
+      </c>
+      <c r="AS171">
+        <v>1.44</v>
+      </c>
+      <c r="AT171">
+        <v>3.01</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>8</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>9</v>
+      </c>
+      <c r="AZ171">
+        <v>13</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>10</v>
+      </c>
+      <c r="BC171">
+        <v>15</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7844443</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" t="s">
+        <v>80</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>199</v>
+      </c>
+      <c r="P172" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q172">
+        <v>2.48</v>
+      </c>
+      <c r="R172">
+        <v>2.21</v>
+      </c>
+      <c r="S172">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>1.32</v>
+      </c>
+      <c r="U172">
+        <v>3.1</v>
+      </c>
+      <c r="V172">
+        <v>2.57</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>6</v>
+      </c>
+      <c r="Y172">
+        <v>1.11</v>
+      </c>
+      <c r="Z172">
+        <v>2.11</v>
+      </c>
+      <c r="AA172">
+        <v>3.34</v>
+      </c>
+      <c r="AB172">
+        <v>3.36</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>8.6</v>
+      </c>
+      <c r="AE172">
+        <v>1.18</v>
+      </c>
+      <c r="AF172">
+        <v>3.84</v>
+      </c>
+      <c r="AG172">
+        <v>1.92</v>
+      </c>
+      <c r="AH172">
+        <v>1.82</v>
+      </c>
+      <c r="AI172">
+        <v>1.64</v>
+      </c>
+      <c r="AJ172">
+        <v>2.12</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.27</v>
+      </c>
+      <c r="AM172">
+        <v>1.81</v>
+      </c>
+      <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
+        <v>0.93</v>
+      </c>
+      <c r="AP172">
+        <v>1.4</v>
+      </c>
+      <c r="AQ172">
+        <v>0.87</v>
+      </c>
+      <c r="AR172">
+        <v>1.54</v>
+      </c>
+      <c r="AS172">
+        <v>1.31</v>
+      </c>
+      <c r="AT172">
+        <v>2.85</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>0</v>
+      </c>
+      <c r="AW172">
+        <v>11</v>
+      </c>
+      <c r="AX172">
+        <v>5</v>
+      </c>
+      <c r="AY172">
+        <v>16</v>
+      </c>
+      <c r="AZ172">
+        <v>5</v>
+      </c>
+      <c r="BA172">
+        <v>9</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>0</v>
+      </c>
+      <c r="BJ172">
+        <v>0</v>
+      </c>
+      <c r="BK172">
+        <v>0</v>
+      </c>
+      <c r="BL172">
+        <v>0</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7844439</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>79</v>
+      </c>
+      <c r="H173" t="s">
+        <v>78</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>200</v>
+      </c>
+      <c r="P173" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q173">
+        <v>3.2</v>
+      </c>
+      <c r="R173">
+        <v>2.31</v>
+      </c>
+      <c r="S173">
+        <v>2.78</v>
+      </c>
+      <c r="T173">
+        <v>1.29</v>
+      </c>
+      <c r="U173">
+        <v>3.28</v>
+      </c>
+      <c r="V173">
+        <v>2.22</v>
+      </c>
+      <c r="W173">
+        <v>1.62</v>
+      </c>
+      <c r="X173">
+        <v>4.7</v>
+      </c>
+      <c r="Y173">
+        <v>1.17</v>
+      </c>
+      <c r="Z173">
+        <v>2.92</v>
+      </c>
+      <c r="AA173">
+        <v>3.45</v>
+      </c>
+      <c r="AB173">
+        <v>2.29</v>
+      </c>
+      <c r="AC173">
+        <v>1.02</v>
+      </c>
+      <c r="AD173">
+        <v>13</v>
+      </c>
+      <c r="AE173">
+        <v>1.11</v>
+      </c>
+      <c r="AF173">
+        <v>4.9</v>
+      </c>
+      <c r="AG173">
+        <v>1.72</v>
+      </c>
+      <c r="AH173">
+        <v>2.03</v>
+      </c>
+      <c r="AI173">
+        <v>1.43</v>
+      </c>
+      <c r="AJ173">
+        <v>2.62</v>
+      </c>
+      <c r="AK173">
+        <v>1.58</v>
+      </c>
+      <c r="AL173">
+        <v>1.26</v>
+      </c>
+      <c r="AM173">
+        <v>1.44</v>
+      </c>
+      <c r="AN173">
+        <v>1.57</v>
+      </c>
+      <c r="AO173">
+        <v>2.5</v>
+      </c>
+      <c r="AP173">
+        <v>1.67</v>
+      </c>
+      <c r="AQ173">
+        <v>2.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.82</v>
+      </c>
+      <c r="AS173">
+        <v>1.73</v>
+      </c>
+      <c r="AT173">
+        <v>3.55</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>14</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>20</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>0</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['2', '86']</t>
   </si>
   <si>
+    <t>['45+3', '71']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -875,6 +878,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ2">
         <v>0.87</v>
@@ -1907,7 +1913,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2113,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2731,7 +2737,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3430,7 +3436,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3636,7 +3642,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3839,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ13">
         <v>0.87</v>
@@ -4791,7 +4797,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4997,7 +5003,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5203,7 +5209,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5615,7 +5621,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5696,7 +5702,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5821,7 +5827,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5899,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6105,7 +6111,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ24">
         <v>0.64</v>
@@ -6233,7 +6239,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6439,7 +6445,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6723,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6851,7 +6857,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7057,7 +7063,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7263,7 +7269,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7469,7 +7475,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7675,7 +7681,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7756,7 +7762,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ32">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.38</v>
@@ -7881,7 +7887,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7959,7 +7965,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ33">
         <v>0.71</v>
@@ -8293,7 +8299,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8580,7 +8586,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR36">
         <v>1.33</v>
@@ -8911,7 +8917,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9117,7 +9123,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9323,7 +9329,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9401,7 +9407,7 @@
         <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9529,7 +9535,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10353,7 +10359,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10559,7 +10565,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10765,7 +10771,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10971,7 +10977,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11258,7 +11264,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR49">
         <v>1.98</v>
@@ -11383,7 +11389,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11667,10 +11673,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ51">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11795,7 +11801,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -12079,10 +12085,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12207,7 +12213,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12288,7 +12294,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12413,7 +12419,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12619,7 +12625,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -13031,7 +13037,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13237,7 +13243,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13933,7 +13939,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -14061,7 +14067,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14473,7 +14479,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14551,7 +14557,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14679,7 +14685,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14885,7 +14891,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14966,7 +14972,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15091,7 +15097,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15297,7 +15303,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15375,7 +15381,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ69">
         <v>0.43</v>
@@ -15709,7 +15715,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15787,7 +15793,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ71">
         <v>2.33</v>
@@ -15996,7 +16002,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16533,7 +16539,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16739,7 +16745,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17229,7 +17235,7 @@
         <v>0.6</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
         <v>0.6</v>
@@ -17769,7 +17775,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17975,7 +17981,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18056,7 +18062,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18799,7 +18805,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18877,7 +18883,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19417,7 +19423,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19495,10 +19501,10 @@
         <v>2.14</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -19623,7 +19629,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19704,7 +19710,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.54</v>
@@ -19829,7 +19835,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20241,7 +20247,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -21146,7 +21152,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.85</v>
@@ -21271,7 +21277,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21352,7 +21358,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21477,7 +21483,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21764,7 +21770,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -21889,7 +21895,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21967,7 +21973,7 @@
         <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ101">
         <v>2.33</v>
@@ -22095,7 +22101,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22301,7 +22307,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -23409,7 +23415,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
         <v>1.64</v>
@@ -23743,7 +23749,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23824,7 +23830,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -23949,7 +23955,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24155,7 +24161,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24361,7 +24367,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24439,7 +24445,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ113">
         <v>1.14</v>
@@ -24567,7 +24573,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24854,7 +24860,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25391,7 +25397,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25675,7 +25681,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>0.43</v>
@@ -26421,7 +26427,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26705,7 +26711,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ124">
         <v>1.43</v>
@@ -26833,7 +26839,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27451,7 +27457,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27532,7 +27538,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR128">
         <v>1.95</v>
@@ -27657,7 +27663,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27738,7 +27744,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.8</v>
@@ -27863,7 +27869,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28275,7 +28281,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28559,7 +28565,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
         <v>0.64</v>
@@ -28765,7 +28771,7 @@
         <v>1.18</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ134">
         <v>1.07</v>
@@ -28893,7 +28899,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29099,7 +29105,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29180,7 +29186,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29305,7 +29311,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29511,7 +29517,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29717,7 +29723,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -30207,7 +30213,7 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
         <v>0.64</v>
@@ -30541,7 +30547,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30622,7 +30628,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -31365,7 +31371,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31571,7 +31577,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31777,7 +31783,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31983,7 +31989,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32189,7 +32195,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32476,7 +32482,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.59</v>
@@ -32679,7 +32685,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
         <v>0.87</v>
@@ -32807,7 +32813,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -33013,7 +33019,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33091,7 +33097,7 @@
         <v>2.42</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ155">
         <v>2.33</v>
@@ -33300,7 +33306,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR156">
         <v>1.57</v>
@@ -33425,7 +33431,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33631,7 +33637,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33837,7 +33843,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -33918,7 +33924,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34043,7 +34049,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34249,7 +34255,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34455,7 +34461,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34661,7 +34667,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -35151,7 +35157,7 @@
         <v>0.46</v>
       </c>
       <c r="AP165">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ165">
         <v>0.43</v>
@@ -35279,7 +35285,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35485,7 +35491,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35691,7 +35697,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -35772,7 +35778,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ168">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR168">
         <v>1.37</v>
@@ -35975,7 +35981,7 @@
         <v>1.15</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ169">
         <v>1.14</v>
@@ -36103,7 +36109,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36309,7 +36315,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36721,7 +36727,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36877,6 +36883,418 @@
         <v>0</v>
       </c>
       <c r="BP173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7844441</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45774.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>201</v>
+      </c>
+      <c r="P174" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q174">
+        <v>2.8</v>
+      </c>
+      <c r="R174">
+        <v>2.07</v>
+      </c>
+      <c r="S174">
+        <v>3.78</v>
+      </c>
+      <c r="T174">
+        <v>1.37</v>
+      </c>
+      <c r="U174">
+        <v>2.85</v>
+      </c>
+      <c r="V174">
+        <v>2.77</v>
+      </c>
+      <c r="W174">
+        <v>1.39</v>
+      </c>
+      <c r="X174">
+        <v>7.2</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>2.19</v>
+      </c>
+      <c r="AA174">
+        <v>3.36</v>
+      </c>
+      <c r="AB174">
+        <v>3.18</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+      <c r="AD174">
+        <v>9.1</v>
+      </c>
+      <c r="AE174">
+        <v>1.23</v>
+      </c>
+      <c r="AF174">
+        <v>3.44</v>
+      </c>
+      <c r="AG174">
+        <v>1.85</v>
+      </c>
+      <c r="AH174">
+        <v>1.89</v>
+      </c>
+      <c r="AI174">
+        <v>1.69</v>
+      </c>
+      <c r="AJ174">
+        <v>2.04</v>
+      </c>
+      <c r="AK174">
+        <v>1.33</v>
+      </c>
+      <c r="AL174">
+        <v>1.31</v>
+      </c>
+      <c r="AM174">
+        <v>1.65</v>
+      </c>
+      <c r="AN174">
+        <v>2</v>
+      </c>
+      <c r="AO174">
+        <v>2</v>
+      </c>
+      <c r="AP174">
+        <v>2.07</v>
+      </c>
+      <c r="AQ174">
+        <v>1.87</v>
+      </c>
+      <c r="AR174">
+        <v>1.76</v>
+      </c>
+      <c r="AS174">
+        <v>1.59</v>
+      </c>
+      <c r="AT174">
+        <v>3.35</v>
+      </c>
+      <c r="AU174">
+        <v>7</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>10</v>
+      </c>
+      <c r="AX174">
+        <v>2</v>
+      </c>
+      <c r="AY174">
+        <v>27</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>13</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>15</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>0</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>0</v>
+      </c>
+      <c r="BK174">
+        <v>0</v>
+      </c>
+      <c r="BL174">
+        <v>0</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7844442</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45774.54166666666</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>82</v>
+      </c>
+      <c r="P175" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q175">
+        <v>2.41</v>
+      </c>
+      <c r="R175">
+        <v>2.01</v>
+      </c>
+      <c r="S175">
+        <v>5.2</v>
+      </c>
+      <c r="T175">
+        <v>1.47</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>3.15</v>
+      </c>
+      <c r="W175">
+        <v>1.31</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>1.89</v>
+      </c>
+      <c r="AA175">
+        <v>3.45</v>
+      </c>
+      <c r="AB175">
+        <v>4</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>7.1</v>
+      </c>
+      <c r="AE175">
+        <v>1.36</v>
+      </c>
+      <c r="AF175">
+        <v>2.71</v>
+      </c>
+      <c r="AG175">
+        <v>1.98</v>
+      </c>
+      <c r="AH175">
+        <v>1.77</v>
+      </c>
+      <c r="AI175">
+        <v>2.03</v>
+      </c>
+      <c r="AJ175">
+        <v>1.7</v>
+      </c>
+      <c r="AK175">
+        <v>1.18</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.97</v>
+      </c>
+      <c r="AN175">
+        <v>1.57</v>
+      </c>
+      <c r="AO175">
+        <v>1.21</v>
+      </c>
+      <c r="AP175">
+        <v>1.47</v>
+      </c>
+      <c r="AQ175">
+        <v>1.33</v>
+      </c>
+      <c r="AR175">
+        <v>1.44</v>
+      </c>
+      <c r="AS175">
+        <v>1.28</v>
+      </c>
+      <c r="AT175">
+        <v>2.72</v>
+      </c>
+      <c r="AU175">
+        <v>7</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>5</v>
+      </c>
+      <c r="BA175">
+        <v>10</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>14</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <v>0</v>
+      </c>
+      <c r="BL175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -37047,10 +37047,10 @@
         <v>13</v>
       </c>
       <c r="BB174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC174">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD174">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,15 @@
     <t>['45+3', '71']</t>
   </si>
   <si>
+    <t>['62', '78']</t>
+  </si>
+  <si>
+    <t>['36', '53']</t>
+  </si>
+  <si>
+    <t>['32', '40', '63', '73']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -881,6 +890,12 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['3', '32', '67', '73']</t>
+  </si>
+  <si>
+    <t>['19', '26', '39']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1913,7 +1928,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2119,7 +2134,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2200,7 +2215,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2406,7 +2421,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2737,7 +2752,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2818,7 +2833,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3227,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ10">
         <v>1.07</v>
@@ -3639,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
         <v>1.87</v>
@@ -4260,7 +4275,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
@@ -4466,7 +4481,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>2.2</v>
@@ -4669,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4797,7 +4812,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4875,10 +4890,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.61</v>
@@ -5003,7 +5018,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5081,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -5209,7 +5224,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5496,7 +5511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.9</v>
@@ -5621,7 +5636,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5827,7 +5842,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6114,7 +6129,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ24">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>2.32</v>
@@ -6239,7 +6254,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6445,7 +6460,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6857,7 +6872,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7063,7 +7078,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7141,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -7269,7 +7284,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7347,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ30">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7475,7 +7490,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7681,7 +7696,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7887,7 +7902,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7968,7 +7983,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR33">
         <v>2.34</v>
@@ -8171,10 +8186,10 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8299,7 +8314,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8917,7 +8932,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8998,7 +9013,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.64</v>
@@ -9123,7 +9138,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9204,7 +9219,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR39">
         <v>1.42</v>
@@ -9329,7 +9344,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9410,7 +9425,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.56</v>
@@ -9535,7 +9550,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9616,7 +9631,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ41">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9819,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ42">
         <v>0.43</v>
@@ -10231,7 +10246,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.87</v>
@@ -10359,7 +10374,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10565,7 +10580,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10643,7 +10658,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
         <v>2.33</v>
@@ -10771,7 +10786,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10977,7 +10992,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11389,7 +11404,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11470,7 +11485,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11801,7 +11816,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -12213,7 +12228,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12291,7 +12306,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>1.87</v>
@@ -12419,7 +12434,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12497,10 +12512,10 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ55">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12625,7 +12640,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12706,7 +12721,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -13037,7 +13052,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13115,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13243,7 +13258,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13324,7 +13339,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.37</v>
@@ -13530,7 +13545,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ60">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -14067,7 +14082,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14479,7 +14494,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14685,7 +14700,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14891,7 +14906,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15097,7 +15112,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15175,10 +15190,10 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -15303,7 +15318,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15715,7 +15730,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16208,7 +16223,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
         <v>1.4</v>
@@ -16414,7 +16429,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.41</v>
@@ -16539,7 +16554,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16745,7 +16760,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16823,7 +16838,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>2.33</v>
@@ -17032,7 +17047,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17441,10 +17456,10 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR79">
         <v>1.8</v>
@@ -17775,7 +17790,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17853,10 +17868,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR81">
         <v>1.35</v>
@@ -17981,7 +17996,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18265,7 +18280,7 @@
         <v>1.17</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18805,7 +18820,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19298,7 +19313,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ88">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19423,7 +19438,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19629,7 +19644,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19835,7 +19850,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19916,7 +19931,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20122,7 +20137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR92">
         <v>1.74</v>
@@ -20247,7 +20262,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20325,7 +20340,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
         <v>0.43</v>
@@ -20531,10 +20546,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.72</v>
@@ -20943,7 +20958,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ96">
         <v>0.6</v>
@@ -21149,7 +21164,7 @@
         <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21277,7 +21292,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21483,7 +21498,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21767,7 +21782,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -21895,7 +21910,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22101,7 +22116,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22182,7 +22197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22307,7 +22322,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22388,7 +22403,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22591,7 +22606,7 @@
         <v>0.63</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
         <v>0.43</v>
@@ -23209,10 +23224,10 @@
         <v>1.88</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.92</v>
@@ -23418,7 +23433,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23749,7 +23764,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23955,7 +23970,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24036,7 +24051,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24161,7 +24176,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24239,7 +24254,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ112">
         <v>1.07</v>
@@ -24367,7 +24382,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24573,7 +24588,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25269,10 +25284,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ117">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.75</v>
@@ -25397,7 +25412,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25475,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ118">
         <v>0.87</v>
@@ -25890,7 +25905,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26302,7 +26317,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -26427,7 +26442,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26714,7 +26729,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ124">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -26839,7 +26854,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27123,7 +27138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ126">
         <v>0.6</v>
@@ -27332,7 +27347,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ127">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR127">
         <v>1.51</v>
@@ -27457,7 +27472,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27535,7 +27550,7 @@
         <v>2.1</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ128">
         <v>1.87</v>
@@ -27663,7 +27678,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27741,7 +27756,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27869,7 +27884,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28281,7 +28296,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28362,7 +28377,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ132">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR132">
         <v>1.4</v>
@@ -28568,7 +28583,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28899,7 +28914,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -28980,7 +28995,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ135">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29105,7 +29120,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29311,7 +29326,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29392,7 +29407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29517,7 +29532,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29723,7 +29738,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -30007,7 +30022,7 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140">
         <v>0.43</v>
@@ -30216,7 +30231,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR141">
         <v>1.49</v>
@@ -30422,7 +30437,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.77</v>
@@ -30547,7 +30562,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30625,7 +30640,7 @@
         <v>2.18</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ143">
         <v>1.87</v>
@@ -31037,7 +31052,7 @@
         <v>1.09</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ145">
         <v>1.14</v>
@@ -31243,7 +31258,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ146">
         <v>1.07</v>
@@ -31371,7 +31386,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31452,7 +31467,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ147">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31577,7 +31592,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31658,7 +31673,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31783,7 +31798,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31864,7 +31879,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>1.53</v>
@@ -31989,7 +32004,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32070,7 +32085,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR150">
         <v>1.75</v>
@@ -32195,7 +32210,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32813,7 +32828,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -33019,7 +33034,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33431,7 +33446,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33637,7 +33652,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33715,7 +33730,7 @@
         <v>0.54</v>
       </c>
       <c r="AP158">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ158">
         <v>0.6</v>
@@ -33843,7 +33858,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -33921,7 +33936,7 @@
         <v>1.92</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ159">
         <v>1.87</v>
@@ -34049,7 +34064,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34255,7 +34270,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34333,10 +34348,10 @@
         <v>1.46</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ161">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR161">
         <v>1.94</v>
@@ -34461,7 +34476,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34542,7 +34557,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ162">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR162">
         <v>1.42</v>
@@ -34667,7 +34682,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -34745,10 +34760,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP163">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.53</v>
@@ -34951,10 +34966,10 @@
         <v>1.69</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ164">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR164">
         <v>1.66</v>
@@ -35285,7 +35300,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35491,7 +35506,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35697,7 +35712,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36109,7 +36124,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36315,7 +36330,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36727,7 +36742,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36933,7 +36948,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37296,6 +37311,830 @@
       </c>
       <c r="BP175">
         <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7844445</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>79</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>202</v>
+      </c>
+      <c r="P176" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q176">
+        <v>3.4</v>
+      </c>
+      <c r="R176">
+        <v>2.25</v>
+      </c>
+      <c r="S176">
+        <v>2.75</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>2.97</v>
+      </c>
+      <c r="AA176">
+        <v>3.31</v>
+      </c>
+      <c r="AB176">
+        <v>2.32</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>9</v>
+      </c>
+      <c r="AE176">
+        <v>1.25</v>
+      </c>
+      <c r="AF176">
+        <v>3.7</v>
+      </c>
+      <c r="AG176">
+        <v>1.85</v>
+      </c>
+      <c r="AH176">
+        <v>1.89</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.57</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.4</v>
+      </c>
+      <c r="AN176">
+        <v>1.29</v>
+      </c>
+      <c r="AO176">
+        <v>1.43</v>
+      </c>
+      <c r="AP176">
+        <v>1.4</v>
+      </c>
+      <c r="AQ176">
+        <v>1.33</v>
+      </c>
+      <c r="AR176">
+        <v>1.65</v>
+      </c>
+      <c r="AS176">
+        <v>1.44</v>
+      </c>
+      <c r="AT176">
+        <v>3.09</v>
+      </c>
+      <c r="AU176">
+        <v>7</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>10</v>
+      </c>
+      <c r="AY176">
+        <v>11</v>
+      </c>
+      <c r="AZ176">
+        <v>15</v>
+      </c>
+      <c r="BA176">
+        <v>5</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>2.03</v>
+      </c>
+      <c r="BE176">
+        <v>6.55</v>
+      </c>
+      <c r="BF176">
+        <v>2.17</v>
+      </c>
+      <c r="BG176">
+        <v>1.19</v>
+      </c>
+      <c r="BH176">
+        <v>3.95</v>
+      </c>
+      <c r="BI176">
+        <v>1.38</v>
+      </c>
+      <c r="BJ176">
+        <v>2.82</v>
+      </c>
+      <c r="BK176">
+        <v>1.63</v>
+      </c>
+      <c r="BL176">
+        <v>2.19</v>
+      </c>
+      <c r="BM176">
+        <v>2</v>
+      </c>
+      <c r="BN176">
+        <v>1.76</v>
+      </c>
+      <c r="BO176">
+        <v>2.48</v>
+      </c>
+      <c r="BP176">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7844448</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>80</v>
+      </c>
+      <c r="H177" t="s">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>4</v>
+      </c>
+      <c r="N177">
+        <v>6</v>
+      </c>
+      <c r="O177" t="s">
+        <v>203</v>
+      </c>
+      <c r="P177" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q177">
+        <v>2.75</v>
+      </c>
+      <c r="R177">
+        <v>2.1</v>
+      </c>
+      <c r="S177">
+        <v>3.6</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>3</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>7</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>2.2</v>
+      </c>
+      <c r="AA177">
+        <v>3.25</v>
+      </c>
+      <c r="AB177">
+        <v>3.25</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8</v>
+      </c>
+      <c r="AE177">
+        <v>1.35</v>
+      </c>
+      <c r="AF177">
+        <v>3</v>
+      </c>
+      <c r="AG177">
+        <v>2</v>
+      </c>
+      <c r="AH177">
+        <v>1.75</v>
+      </c>
+      <c r="AI177">
+        <v>1.83</v>
+      </c>
+      <c r="AJ177">
+        <v>1.83</v>
+      </c>
+      <c r="AK177">
+        <v>1.36</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.57</v>
+      </c>
+      <c r="AN177">
+        <v>1.71</v>
+      </c>
+      <c r="AO177">
+        <v>0.71</v>
+      </c>
+      <c r="AP177">
+        <v>1.6</v>
+      </c>
+      <c r="AQ177">
+        <v>0.87</v>
+      </c>
+      <c r="AR177">
+        <v>1.56</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>2.89</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>9</v>
+      </c>
+      <c r="AX177">
+        <v>1</v>
+      </c>
+      <c r="AY177">
+        <v>16</v>
+      </c>
+      <c r="AZ177">
+        <v>7</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>6</v>
+      </c>
+      <c r="BD177">
+        <v>1.88</v>
+      </c>
+      <c r="BE177">
+        <v>6.5</v>
+      </c>
+      <c r="BF177">
+        <v>2.38</v>
+      </c>
+      <c r="BG177">
+        <v>1.23</v>
+      </c>
+      <c r="BH177">
+        <v>3.6</v>
+      </c>
+      <c r="BI177">
+        <v>1.43</v>
+      </c>
+      <c r="BJ177">
+        <v>2.6</v>
+      </c>
+      <c r="BK177">
+        <v>1.72</v>
+      </c>
+      <c r="BL177">
+        <v>2.05</v>
+      </c>
+      <c r="BM177">
+        <v>2.14</v>
+      </c>
+      <c r="BN177">
+        <v>1.66</v>
+      </c>
+      <c r="BO177">
+        <v>2.68</v>
+      </c>
+      <c r="BP177">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7844449</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>3.2</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>2.75</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>7</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>2.64</v>
+      </c>
+      <c r="AA178">
+        <v>3.35</v>
+      </c>
+      <c r="AB178">
+        <v>2.54</v>
+      </c>
+      <c r="AC178">
+        <v>1.05</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>3.35</v>
+      </c>
+      <c r="AG178">
+        <v>1.89</v>
+      </c>
+      <c r="AH178">
+        <v>1.85</v>
+      </c>
+      <c r="AI178">
+        <v>1.73</v>
+      </c>
+      <c r="AJ178">
+        <v>2</v>
+      </c>
+      <c r="AK178">
+        <v>1.48</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.48</v>
+      </c>
+      <c r="AN178">
+        <v>1.07</v>
+      </c>
+      <c r="AO178">
+        <v>0.64</v>
+      </c>
+      <c r="AP178">
+        <v>1.07</v>
+      </c>
+      <c r="AQ178">
+        <v>0.67</v>
+      </c>
+      <c r="AR178">
+        <v>1.39</v>
+      </c>
+      <c r="AS178">
+        <v>1.21</v>
+      </c>
+      <c r="AT178">
+        <v>2.6</v>
+      </c>
+      <c r="AU178">
+        <v>2</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>7</v>
+      </c>
+      <c r="AZ178">
+        <v>9</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>9</v>
+      </c>
+      <c r="BC178">
+        <v>14</v>
+      </c>
+      <c r="BD178">
+        <v>2.01</v>
+      </c>
+      <c r="BE178">
+        <v>6.45</v>
+      </c>
+      <c r="BF178">
+        <v>2.21</v>
+      </c>
+      <c r="BG178">
+        <v>1.22</v>
+      </c>
+      <c r="BH178">
+        <v>3.65</v>
+      </c>
+      <c r="BI178">
+        <v>1.42</v>
+      </c>
+      <c r="BJ178">
+        <v>2.65</v>
+      </c>
+      <c r="BK178">
+        <v>2</v>
+      </c>
+      <c r="BL178">
+        <v>1.8</v>
+      </c>
+      <c r="BM178">
+        <v>2.11</v>
+      </c>
+      <c r="BN178">
+        <v>1.68</v>
+      </c>
+      <c r="BO178">
+        <v>2.65</v>
+      </c>
+      <c r="BP178">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7844447</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>81</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>7</v>
+      </c>
+      <c r="O179" t="s">
+        <v>204</v>
+      </c>
+      <c r="P179" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q179">
+        <v>2.1</v>
+      </c>
+      <c r="R179">
+        <v>2.4</v>
+      </c>
+      <c r="S179">
+        <v>4.33</v>
+      </c>
+      <c r="T179">
+        <v>1.29</v>
+      </c>
+      <c r="U179">
+        <v>3.5</v>
+      </c>
+      <c r="V179">
+        <v>2.25</v>
+      </c>
+      <c r="W179">
+        <v>1.57</v>
+      </c>
+      <c r="X179">
+        <v>5</v>
+      </c>
+      <c r="Y179">
+        <v>1.14</v>
+      </c>
+      <c r="Z179">
+        <v>1.39</v>
+      </c>
+      <c r="AA179">
+        <v>4.9</v>
+      </c>
+      <c r="AB179">
+        <v>6</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
+        <v>13.9</v>
+      </c>
+      <c r="AE179">
+        <v>1.17</v>
+      </c>
+      <c r="AF179">
+        <v>4.7</v>
+      </c>
+      <c r="AG179">
+        <v>1.57</v>
+      </c>
+      <c r="AH179">
+        <v>2.15</v>
+      </c>
+      <c r="AI179">
+        <v>1.62</v>
+      </c>
+      <c r="AJ179">
+        <v>2.2</v>
+      </c>
+      <c r="AK179">
+        <v>1.18</v>
+      </c>
+      <c r="AL179">
+        <v>1.18</v>
+      </c>
+      <c r="AM179">
+        <v>2.05</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>1.64</v>
+      </c>
+      <c r="AP179">
+        <v>2.07</v>
+      </c>
+      <c r="AQ179">
+        <v>1.53</v>
+      </c>
+      <c r="AR179">
+        <v>1.98</v>
+      </c>
+      <c r="AS179">
+        <v>1.48</v>
+      </c>
+      <c r="AT179">
+        <v>3.46</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>4</v>
+      </c>
+      <c r="AX179">
+        <v>4</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>10</v>
+      </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.42</v>
+      </c>
+      <c r="BE179">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF179">
+        <v>3.4</v>
+      </c>
+      <c r="BG179">
+        <v>1.19</v>
+      </c>
+      <c r="BH179">
+        <v>3.92</v>
+      </c>
+      <c r="BI179">
+        <v>1.38</v>
+      </c>
+      <c r="BJ179">
+        <v>2.8</v>
+      </c>
+      <c r="BK179">
+        <v>1.63</v>
+      </c>
+      <c r="BL179">
+        <v>2.19</v>
+      </c>
+      <c r="BM179">
+        <v>2</v>
+      </c>
+      <c r="BN179">
+        <v>1.75</v>
+      </c>
+      <c r="BO179">
+        <v>2.5</v>
+      </c>
+      <c r="BP179">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -895,7 +895,10 @@
     <t>['3', '32', '67', '73']</t>
   </si>
   <si>
-    <t>['19', '26', '39']</t>
+    <t>['18', '26', '39']</t>
+  </si>
+  <si>
+    <t>['21', '85']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2418,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2830,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ8">
         <v>0.87</v>
@@ -3039,7 +3042,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4478,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -5099,7 +5102,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5508,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.53</v>
@@ -6332,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ25">
         <v>2.33</v>
@@ -6747,7 +6750,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7568,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7774,7 +7777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -9837,7 +9840,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ42">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10040,7 +10043,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -10455,7 +10458,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ45">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -11070,10 +11073,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -11897,7 +11900,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.35</v>
@@ -12924,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ57">
         <v>0.87</v>
@@ -13133,7 +13136,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13748,7 +13751,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>2.33</v>
@@ -14366,10 +14369,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14781,7 +14784,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -15399,7 +15402,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ69">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -16014,7 +16017,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16632,7 +16635,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>0.87</v>
@@ -17665,7 +17668,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -18283,7 +18286,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -19310,7 +19313,7 @@
         <v>0.57</v>
       </c>
       <c r="AP88">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -20134,7 +20137,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
         <v>0.87</v>
@@ -20343,7 +20346,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ93">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR93">
         <v>1.34</v>
@@ -20755,7 +20758,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ95">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21576,7 +21579,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ99">
         <v>1.07</v>
@@ -22609,7 +22612,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR104">
         <v>1.71</v>
@@ -22812,10 +22815,10 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.8</v>
@@ -23842,7 +23845,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ110">
         <v>1.87</v>
@@ -24463,7 +24466,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ113">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR113">
         <v>1.8</v>
@@ -25699,7 +25702,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR119">
         <v>1.56</v>
@@ -25902,7 +25905,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -26111,7 +26114,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ121">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26932,7 +26935,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
         <v>1.07</v>
@@ -28171,7 +28174,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR131">
         <v>1.76</v>
@@ -28374,7 +28377,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ132">
         <v>1.53</v>
@@ -28992,7 +28995,7 @@
         <v>0.55</v>
       </c>
       <c r="AP135">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ135">
         <v>0.87</v>
@@ -29404,7 +29407,7 @@
         <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -30025,7 +30028,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ140">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR140">
         <v>1.45</v>
@@ -31055,7 +31058,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ145">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR145">
         <v>1.76</v>
@@ -31464,7 +31467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ147">
         <v>0.67</v>
@@ -32082,7 +32085,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150">
         <v>1.53</v>
@@ -34145,7 +34148,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ160">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -35175,7 +35178,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ165">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35378,7 +35381,7 @@
         <v>2.46</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166">
         <v>2.33</v>
@@ -35587,7 +35590,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ167">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR167">
         <v>1.81</v>
@@ -35790,7 +35793,7 @@
         <v>1.08</v>
       </c>
       <c r="AP168">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ168">
         <v>1.33</v>
@@ -35999,7 +36002,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ169">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR169">
         <v>1.73</v>
@@ -38135,6 +38138,418 @@
       </c>
       <c r="BP179">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7844450</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>82</v>
+      </c>
+      <c r="P180" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q180">
+        <v>3.1</v>
+      </c>
+      <c r="R180">
+        <v>2.1</v>
+      </c>
+      <c r="S180">
+        <v>3.2</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>2.42</v>
+      </c>
+      <c r="AA180">
+        <v>3.28</v>
+      </c>
+      <c r="AB180">
+        <v>2.83</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE180">
+        <v>1.24</v>
+      </c>
+      <c r="AF180">
+        <v>3.36</v>
+      </c>
+      <c r="AG180">
+        <v>1.94</v>
+      </c>
+      <c r="AH180">
+        <v>1.8</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.91</v>
+      </c>
+      <c r="AK180">
+        <v>1.44</v>
+      </c>
+      <c r="AL180">
+        <v>1.35</v>
+      </c>
+      <c r="AM180">
+        <v>1.44</v>
+      </c>
+      <c r="AN180">
+        <v>0.93</v>
+      </c>
+      <c r="AO180">
+        <v>0.43</v>
+      </c>
+      <c r="AP180">
+        <v>0.87</v>
+      </c>
+      <c r="AQ180">
+        <v>0.6</v>
+      </c>
+      <c r="AR180">
+        <v>1.37</v>
+      </c>
+      <c r="AS180">
+        <v>1.19</v>
+      </c>
+      <c r="AT180">
+        <v>2.56</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>12</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>9</v>
+      </c>
+      <c r="BC180">
+        <v>13</v>
+      </c>
+      <c r="BD180">
+        <v>2.34</v>
+      </c>
+      <c r="BE180">
+        <v>6.6</v>
+      </c>
+      <c r="BF180">
+        <v>1.9</v>
+      </c>
+      <c r="BG180">
+        <v>1.2</v>
+      </c>
+      <c r="BH180">
+        <v>3.85</v>
+      </c>
+      <c r="BI180">
+        <v>1.39</v>
+      </c>
+      <c r="BJ180">
+        <v>2.75</v>
+      </c>
+      <c r="BK180">
+        <v>1.65</v>
+      </c>
+      <c r="BL180">
+        <v>2.15</v>
+      </c>
+      <c r="BM180">
+        <v>2.04</v>
+      </c>
+      <c r="BN180">
+        <v>1.73</v>
+      </c>
+      <c r="BO180">
+        <v>2.55</v>
+      </c>
+      <c r="BP180">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7844446</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>82</v>
+      </c>
+      <c r="P181" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q181">
+        <v>2.4</v>
+      </c>
+      <c r="R181">
+        <v>2.3</v>
+      </c>
+      <c r="S181">
+        <v>3.75</v>
+      </c>
+      <c r="T181">
+        <v>1.3</v>
+      </c>
+      <c r="U181">
+        <v>3.4</v>
+      </c>
+      <c r="V181">
+        <v>2.5</v>
+      </c>
+      <c r="W181">
+        <v>1.5</v>
+      </c>
+      <c r="X181">
+        <v>5.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.13</v>
+      </c>
+      <c r="Z181">
+        <v>1.97</v>
+      </c>
+      <c r="AA181">
+        <v>3.47</v>
+      </c>
+      <c r="AB181">
+        <v>3.63</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.17</v>
+      </c>
+      <c r="AF181">
+        <v>4.05</v>
+      </c>
+      <c r="AG181">
+        <v>1.92</v>
+      </c>
+      <c r="AH181">
+        <v>1.82</v>
+      </c>
+      <c r="AI181">
+        <v>1.62</v>
+      </c>
+      <c r="AJ181">
+        <v>2.2</v>
+      </c>
+      <c r="AK181">
+        <v>1.29</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.8</v>
+      </c>
+      <c r="AN181">
+        <v>1.5</v>
+      </c>
+      <c r="AO181">
+        <v>1.14</v>
+      </c>
+      <c r="AP181">
+        <v>1.4</v>
+      </c>
+      <c r="AQ181">
+        <v>1.27</v>
+      </c>
+      <c r="AR181">
+        <v>1.68</v>
+      </c>
+      <c r="AS181">
+        <v>1.23</v>
+      </c>
+      <c r="AT181">
+        <v>2.91</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>9</v>
+      </c>
+      <c r="AW181">
+        <v>11</v>
+      </c>
+      <c r="AX181">
+        <v>6</v>
+      </c>
+      <c r="AY181">
+        <v>16</v>
+      </c>
+      <c r="AZ181">
+        <v>15</v>
+      </c>
+      <c r="BA181">
+        <v>9</v>
+      </c>
+      <c r="BB181">
+        <v>7</v>
+      </c>
+      <c r="BC181">
+        <v>16</v>
+      </c>
+      <c r="BD181">
+        <v>1.54</v>
+      </c>
+      <c r="BE181">
+        <v>8.9</v>
+      </c>
+      <c r="BF181">
+        <v>2.91</v>
+      </c>
+      <c r="BG181">
+        <v>1.22</v>
+      </c>
+      <c r="BH181">
+        <v>3.7</v>
+      </c>
+      <c r="BI181">
+        <v>1.42</v>
+      </c>
+      <c r="BJ181">
+        <v>2.67</v>
+      </c>
+      <c r="BK181">
+        <v>1.85</v>
+      </c>
+      <c r="BL181">
+        <v>1.95</v>
+      </c>
+      <c r="BM181">
+        <v>2.09</v>
+      </c>
+      <c r="BN181">
+        <v>1.69</v>
+      </c>
+      <c r="BO181">
+        <v>2.62</v>
+      </c>
+      <c r="BP181">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,15 @@
     <t>['32', '40', '63', '73']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['51', '85', '89']</t>
+  </si>
+  <si>
+    <t>['29', '58', '64']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -899,6 +908,12 @@
   </si>
   <si>
     <t>['21', '85']</t>
+  </si>
+  <si>
+    <t>['57', '69', '77']</t>
+  </si>
+  <si>
+    <t>['12', '19']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
         <v>0.87</v>
@@ -1803,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1931,7 +1946,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2012,7 +2027,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2137,7 +2152,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2215,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2424,7 +2439,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2627,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2755,7 +2770,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -4069,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>1.07</v>
@@ -4275,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
@@ -4687,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17">
         <v>0.87</v>
@@ -4815,7 +4830,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -5021,7 +5036,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5227,7 +5242,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5308,7 +5323,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5514,7 +5529,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>1.9</v>
@@ -5639,7 +5654,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5717,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5845,7 +5860,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5923,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>1.87</v>
@@ -6132,7 +6147,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>2.32</v>
@@ -6257,7 +6272,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6338,7 +6353,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ25">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6463,7 +6478,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6541,7 +6556,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -6747,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1.27</v>
@@ -6875,7 +6890,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7081,7 +7096,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7159,10 +7174,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29">
         <v>1.86</v>
@@ -7287,7 +7302,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7368,7 +7383,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7493,7 +7508,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7699,7 +7714,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7905,7 +7920,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8192,7 +8207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8317,7 +8332,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8398,7 +8413,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR35">
         <v>2.59</v>
@@ -8601,7 +8616,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
         <v>1.87</v>
@@ -8807,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8935,7 +8950,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9141,7 +9156,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9219,10 +9234,10 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>1.42</v>
@@ -9347,7 +9362,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9425,7 +9440,7 @@
         <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9553,7 +9568,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9634,7 +9649,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -10046,7 +10061,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10249,7 +10264,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ44">
         <v>0.87</v>
@@ -10377,7 +10392,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10583,7 +10598,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10664,7 +10679,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR46">
         <v>1.09</v>
@@ -10789,7 +10804,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10995,7 +11010,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11407,7 +11422,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11485,7 +11500,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.87</v>
@@ -11819,7 +11834,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -11897,7 +11912,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12103,7 +12118,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12231,7 +12246,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12309,7 +12324,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ54">
         <v>1.87</v>
@@ -12437,7 +12452,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12518,7 +12533,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12643,7 +12658,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12724,7 +12739,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -13055,7 +13070,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13261,7 +13276,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13339,7 +13354,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13754,7 +13769,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -13960,7 +13975,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14085,7 +14100,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14497,7 +14512,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14703,7 +14718,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14909,7 +14924,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15115,7 +15130,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15321,7 +15336,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15733,7 +15748,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15811,10 +15826,10 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16223,10 +16238,10 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
         <v>1.4</v>
@@ -16557,7 +16572,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16763,7 +16778,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16841,10 +16856,10 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17047,10 +17062,10 @@
         <v>2.2</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17253,10 +17268,10 @@
         <v>0.6</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17793,7 +17808,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17874,7 +17889,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.35</v>
@@ -17999,7 +18014,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18283,7 +18298,7 @@
         <v>1.17</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ83">
         <v>1.27</v>
@@ -18492,7 +18507,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18695,10 +18710,10 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR85">
         <v>1.4</v>
@@ -18823,7 +18838,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18901,7 +18916,7 @@
         <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19316,7 +19331,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19441,7 +19456,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19647,7 +19662,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19725,7 +19740,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19853,7 +19868,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19934,7 +19949,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20265,7 +20280,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20549,7 +20564,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94">
         <v>1.33</v>
@@ -20964,7 +20979,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>1.73</v>
@@ -21295,7 +21310,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21373,7 +21388,7 @@
         <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.87</v>
@@ -21501,7 +21516,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21913,7 +21928,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21994,7 +22009,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ101">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22119,7 +22134,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22197,7 +22212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
         <v>0.87</v>
@@ -22325,7 +22340,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22406,7 +22421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22609,7 +22624,7 @@
         <v>0.63</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>0.6</v>
@@ -23433,10 +23448,10 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23642,7 +23657,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ109">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23767,7 +23782,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23973,7 +23988,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24179,7 +24194,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24385,7 +24400,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24591,7 +24606,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24669,10 +24684,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -25081,10 +25096,10 @@
         <v>0.44</v>
       </c>
       <c r="AP116">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25287,10 +25302,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR117">
         <v>1.75</v>
@@ -25415,7 +25430,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25699,7 +25714,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>0.6</v>
@@ -26111,7 +26126,7 @@
         <v>1.2</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>1.27</v>
@@ -26445,7 +26460,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26526,7 +26541,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26857,7 +26872,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27144,7 +27159,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ126">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126">
         <v>1.44</v>
@@ -27350,7 +27365,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ127">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.51</v>
@@ -27475,7 +27490,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27681,7 +27696,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27759,7 +27774,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27887,7 +27902,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -27965,7 +27980,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ130">
         <v>0.87</v>
@@ -28299,7 +28314,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28380,7 +28395,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR132">
         <v>1.4</v>
@@ -28583,10 +28598,10 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28917,7 +28932,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29123,7 +29138,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29201,7 +29216,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>1.33</v>
@@ -29329,7 +29344,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29535,7 +29550,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29613,10 +29628,10 @@
         <v>2.36</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29741,7 +29756,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -30231,10 +30246,10 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>1.49</v>
@@ -30440,7 +30455,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.77</v>
@@ -30565,7 +30580,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30852,7 +30867,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ144">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR144">
         <v>1.44</v>
@@ -31055,7 +31070,7 @@
         <v>1.09</v>
       </c>
       <c r="AP145">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ145">
         <v>1.27</v>
@@ -31389,7 +31404,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31470,7 +31485,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31595,7 +31610,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31673,7 +31688,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>0.87</v>
@@ -31801,7 +31816,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31879,7 +31894,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32007,7 +32022,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32088,7 +32103,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ150">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR150">
         <v>1.75</v>
@@ -32213,7 +32228,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32703,7 +32718,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
         <v>0.87</v>
@@ -32831,7 +32846,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -33037,7 +33052,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33118,7 +33133,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ155">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR155">
         <v>1.75</v>
@@ -33321,7 +33336,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>1.87</v>
@@ -33449,7 +33464,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33527,10 +33542,10 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>1.52</v>
@@ -33655,7 +33670,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33736,7 +33751,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ158">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33861,7 +33876,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -33939,7 +33954,7 @@
         <v>1.92</v>
       </c>
       <c r="AP159">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ159">
         <v>1.87</v>
@@ -34067,7 +34082,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34273,7 +34288,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34479,7 +34494,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34685,7 +34700,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -34766,7 +34781,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ163">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR163">
         <v>1.53</v>
@@ -34969,10 +34984,10 @@
         <v>1.69</v>
       </c>
       <c r="AP164">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ164">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.66</v>
@@ -35175,7 +35190,7 @@
         <v>0.46</v>
       </c>
       <c r="AP165">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ165">
         <v>0.6</v>
@@ -35303,7 +35318,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35384,7 +35399,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -35509,7 +35524,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35715,7 +35730,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36127,7 +36142,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36208,7 +36223,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36333,7 +36348,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36411,7 +36426,7 @@
         <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
         <v>1.07</v>
@@ -36617,7 +36632,7 @@
         <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>0.87</v>
@@ -36745,7 +36760,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36826,7 +36841,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ173">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR173">
         <v>1.82</v>
@@ -36951,7 +36966,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37235,7 +37250,7 @@
         <v>1.21</v>
       </c>
       <c r="AP175">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ175">
         <v>1.33</v>
@@ -37441,7 +37456,7 @@
         <v>1.43</v>
       </c>
       <c r="AP176">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ176">
         <v>1.33</v>
@@ -37569,7 +37584,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37856,7 +37871,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ178">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR178">
         <v>1.39</v>
@@ -37981,7 +37996,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38062,7 +38077,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.98</v>
@@ -38187,7 +38202,7 @@
         <v>82</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>3.1</v>
@@ -38550,6 +38565,830 @@
       </c>
       <c r="BP181">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7844453</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>205</v>
+      </c>
+      <c r="P182" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q182">
+        <v>4.5</v>
+      </c>
+      <c r="R182">
+        <v>2.5</v>
+      </c>
+      <c r="S182">
+        <v>2.05</v>
+      </c>
+      <c r="T182">
+        <v>1.25</v>
+      </c>
+      <c r="U182">
+        <v>3.75</v>
+      </c>
+      <c r="V182">
+        <v>2.1</v>
+      </c>
+      <c r="W182">
+        <v>1.67</v>
+      </c>
+      <c r="X182">
+        <v>4.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.17</v>
+      </c>
+      <c r="Z182">
+        <v>4.2</v>
+      </c>
+      <c r="AA182">
+        <v>4</v>
+      </c>
+      <c r="AB182">
+        <v>1.57</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>17</v>
+      </c>
+      <c r="AE182">
+        <v>1.13</v>
+      </c>
+      <c r="AF182">
+        <v>5.25</v>
+      </c>
+      <c r="AG182">
+        <v>1.4</v>
+      </c>
+      <c r="AH182">
+        <v>2.73</v>
+      </c>
+      <c r="AI182">
+        <v>1.53</v>
+      </c>
+      <c r="AJ182">
+        <v>2.38</v>
+      </c>
+      <c r="AK182">
+        <v>2.2</v>
+      </c>
+      <c r="AL182">
+        <v>1.17</v>
+      </c>
+      <c r="AM182">
+        <v>1.15</v>
+      </c>
+      <c r="AN182">
+        <v>1.4</v>
+      </c>
+      <c r="AO182">
+        <v>2.33</v>
+      </c>
+      <c r="AP182">
+        <v>1.31</v>
+      </c>
+      <c r="AQ182">
+        <v>2.38</v>
+      </c>
+      <c r="AR182">
+        <v>1.65</v>
+      </c>
+      <c r="AS182">
+        <v>1.69</v>
+      </c>
+      <c r="AT182">
+        <v>3.34</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>6</v>
+      </c>
+      <c r="AW182">
+        <v>7</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>16</v>
+      </c>
+      <c r="AZ182">
+        <v>10</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>9</v>
+      </c>
+      <c r="BD182">
+        <v>2.4</v>
+      </c>
+      <c r="BE182">
+        <v>6.6</v>
+      </c>
+      <c r="BF182">
+        <v>1.86</v>
+      </c>
+      <c r="BG182">
+        <v>1.2</v>
+      </c>
+      <c r="BH182">
+        <v>3.85</v>
+      </c>
+      <c r="BI182">
+        <v>1.33</v>
+      </c>
+      <c r="BJ182">
+        <v>2.83</v>
+      </c>
+      <c r="BK182">
+        <v>1.6</v>
+      </c>
+      <c r="BL182">
+        <v>2.14</v>
+      </c>
+      <c r="BM182">
+        <v>2.02</v>
+      </c>
+      <c r="BN182">
+        <v>1.71</v>
+      </c>
+      <c r="BO182">
+        <v>2.6</v>
+      </c>
+      <c r="BP182">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7844455</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>77</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>166</v>
+      </c>
+      <c r="P183" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q183">
+        <v>2.4</v>
+      </c>
+      <c r="R183">
+        <v>2.2</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.93</v>
+      </c>
+      <c r="AA183">
+        <v>3.25</v>
+      </c>
+      <c r="AB183">
+        <v>3.41</v>
+      </c>
+      <c r="AC183">
+        <v>1.05</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.28</v>
+      </c>
+      <c r="AF183">
+        <v>3.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.91</v>
+      </c>
+      <c r="AH183">
+        <v>1.79</v>
+      </c>
+      <c r="AI183">
+        <v>1.8</v>
+      </c>
+      <c r="AJ183">
+        <v>1.91</v>
+      </c>
+      <c r="AK183">
+        <v>1.25</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>1.85</v>
+      </c>
+      <c r="AN183">
+        <v>1.4</v>
+      </c>
+      <c r="AO183">
+        <v>0.67</v>
+      </c>
+      <c r="AP183">
+        <v>1.5</v>
+      </c>
+      <c r="AQ183">
+        <v>0.63</v>
+      </c>
+      <c r="AR183">
+        <v>1.55</v>
+      </c>
+      <c r="AS183">
+        <v>1.22</v>
+      </c>
+      <c r="AT183">
+        <v>2.77</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>7</v>
+      </c>
+      <c r="AW183">
+        <v>4</v>
+      </c>
+      <c r="AX183">
+        <v>5</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>14</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>9</v>
+      </c>
+      <c r="BC183">
+        <v>14</v>
+      </c>
+      <c r="BD183">
+        <v>1.53</v>
+      </c>
+      <c r="BE183">
+        <v>9</v>
+      </c>
+      <c r="BF183">
+        <v>2.93</v>
+      </c>
+      <c r="BG183">
+        <v>1.19</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>1.32</v>
+      </c>
+      <c r="BJ183">
+        <v>2.88</v>
+      </c>
+      <c r="BK183">
+        <v>1.8</v>
+      </c>
+      <c r="BL183">
+        <v>2</v>
+      </c>
+      <c r="BM183">
+        <v>1.99</v>
+      </c>
+      <c r="BN183">
+        <v>1.73</v>
+      </c>
+      <c r="BO183">
+        <v>2.57</v>
+      </c>
+      <c r="BP183">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7844456</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" t="s">
+        <v>76</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>206</v>
+      </c>
+      <c r="P184" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q184">
+        <v>2.5</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>4.75</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
+        <v>3.4</v>
+      </c>
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>1.86</v>
+      </c>
+      <c r="AA184">
+        <v>3.17</v>
+      </c>
+      <c r="AB184">
+        <v>3.73</v>
+      </c>
+      <c r="AC184">
+        <v>1.07</v>
+      </c>
+      <c r="AD184">
+        <v>7.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.4</v>
+      </c>
+      <c r="AF184">
+        <v>2.8</v>
+      </c>
+      <c r="AG184">
+        <v>2.1</v>
+      </c>
+      <c r="AH184">
+        <v>1.6</v>
+      </c>
+      <c r="AI184">
+        <v>2.1</v>
+      </c>
+      <c r="AJ184">
+        <v>1.67</v>
+      </c>
+      <c r="AK184">
+        <v>1.18</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.85</v>
+      </c>
+      <c r="AN184">
+        <v>1.47</v>
+      </c>
+      <c r="AO184">
+        <v>0.6</v>
+      </c>
+      <c r="AP184">
+        <v>1.56</v>
+      </c>
+      <c r="AQ184">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR184">
+        <v>1.47</v>
+      </c>
+      <c r="AS184">
+        <v>1.17</v>
+      </c>
+      <c r="AT184">
+        <v>2.64</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>6</v>
+      </c>
+      <c r="AX184">
+        <v>6</v>
+      </c>
+      <c r="AY184">
+        <v>11</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>1.47</v>
+      </c>
+      <c r="BE184">
+        <v>9</v>
+      </c>
+      <c r="BF184">
+        <v>3.18</v>
+      </c>
+      <c r="BG184">
+        <v>1.22</v>
+      </c>
+      <c r="BH184">
+        <v>3.65</v>
+      </c>
+      <c r="BI184">
+        <v>1.43</v>
+      </c>
+      <c r="BJ184">
+        <v>2.63</v>
+      </c>
+      <c r="BK184">
+        <v>1.72</v>
+      </c>
+      <c r="BL184">
+        <v>2.09</v>
+      </c>
+      <c r="BM184">
+        <v>2.15</v>
+      </c>
+      <c r="BN184">
+        <v>1.68</v>
+      </c>
+      <c r="BO184">
+        <v>2.65</v>
+      </c>
+      <c r="BP184">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7844451</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s">
+        <v>81</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>5</v>
+      </c>
+      <c r="O185" t="s">
+        <v>207</v>
+      </c>
+      <c r="P185" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q185">
+        <v>2.88</v>
+      </c>
+      <c r="R185">
+        <v>2.3</v>
+      </c>
+      <c r="S185">
+        <v>3</v>
+      </c>
+      <c r="T185">
+        <v>1.3</v>
+      </c>
+      <c r="U185">
+        <v>3.4</v>
+      </c>
+      <c r="V185">
+        <v>2.38</v>
+      </c>
+      <c r="W185">
+        <v>1.53</v>
+      </c>
+      <c r="X185">
+        <v>5.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.13</v>
+      </c>
+      <c r="Z185">
+        <v>2.38</v>
+      </c>
+      <c r="AA185">
+        <v>3.13</v>
+      </c>
+      <c r="AB185">
+        <v>2.63</v>
+      </c>
+      <c r="AC185">
+        <v>1.03</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.2</v>
+      </c>
+      <c r="AF185">
+        <v>4.33</v>
+      </c>
+      <c r="AG185">
+        <v>1.8</v>
+      </c>
+      <c r="AH185">
+        <v>1.9</v>
+      </c>
+      <c r="AI185">
+        <v>1.57</v>
+      </c>
+      <c r="AJ185">
+        <v>2.25</v>
+      </c>
+      <c r="AK185">
+        <v>1.45</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>1.55</v>
+      </c>
+      <c r="AN185">
+        <v>1.47</v>
+      </c>
+      <c r="AO185">
+        <v>1.53</v>
+      </c>
+      <c r="AP185">
+        <v>1.56</v>
+      </c>
+      <c r="AQ185">
+        <v>1.44</v>
+      </c>
+      <c r="AR185">
+        <v>1.55</v>
+      </c>
+      <c r="AS185">
+        <v>1.49</v>
+      </c>
+      <c r="AT185">
+        <v>3.04</v>
+      </c>
+      <c r="AU185">
+        <v>9</v>
+      </c>
+      <c r="AV185">
+        <v>8</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>8</v>
+      </c>
+      <c r="AY185">
+        <v>15</v>
+      </c>
+      <c r="AZ185">
+        <v>20</v>
+      </c>
+      <c r="BA185">
+        <v>2</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.98</v>
+      </c>
+      <c r="BE185">
+        <v>6.55</v>
+      </c>
+      <c r="BF185">
+        <v>2.23</v>
+      </c>
+      <c r="BG185">
+        <v>1.19</v>
+      </c>
+      <c r="BH185">
+        <v>3.95</v>
+      </c>
+      <c r="BI185">
+        <v>1.33</v>
+      </c>
+      <c r="BJ185">
+        <v>2.83</v>
+      </c>
+      <c r="BK185">
+        <v>1.6</v>
+      </c>
+      <c r="BL185">
+        <v>2.14</v>
+      </c>
+      <c r="BM185">
+        <v>2.03</v>
+      </c>
+      <c r="BN185">
+        <v>1.7</v>
+      </c>
+      <c r="BO185">
+        <v>2.6</v>
+      </c>
+      <c r="BP185">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,9 @@
     <t>['29', '58', '64']</t>
   </si>
   <si>
+    <t>['4', '7', '87', '90+1']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -914,6 +917,9 @@
   </si>
   <si>
     <t>['12', '19']</t>
+  </si>
+  <si>
+    <t>['12', '37', '45', '82', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1946,7 +1952,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2152,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2770,7 +2776,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3466,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3672,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4830,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4908,7 +4914,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5036,7 +5042,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>1.7</v>
@@ -5242,7 +5248,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5654,7 +5660,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5735,7 +5741,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5860,7 +5866,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5941,7 +5947,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6272,7 +6278,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6478,7 +6484,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6890,7 +6896,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7096,7 +7102,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7302,7 +7308,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7508,7 +7514,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7714,7 +7720,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7795,7 +7801,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.38</v>
@@ -7920,7 +7926,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8204,7 +8210,7 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8332,7 +8338,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8410,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>2.38</v>
@@ -8619,7 +8625,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.33</v>
@@ -8950,7 +8956,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9156,7 +9162,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9362,7 +9368,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9568,7 +9574,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10392,7 +10398,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10598,7 +10604,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10676,7 +10682,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>2.38</v>
@@ -10804,7 +10810,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -11010,7 +11016,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11294,10 +11300,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.98</v>
@@ -11422,7 +11428,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11709,7 +11715,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11834,7 +11840,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -12121,7 +12127,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR53">
         <v>1.48</v>
@@ -12246,7 +12252,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12327,7 +12333,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12452,7 +12458,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12658,7 +12664,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12736,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -13070,7 +13076,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13148,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.27</v>
@@ -13276,7 +13282,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14100,7 +14106,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14512,7 +14518,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14718,7 +14724,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14796,7 +14802,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1.27</v>
@@ -14924,7 +14930,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -15005,7 +15011,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ67">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15130,7 +15136,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15208,7 +15214,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>0.87</v>
@@ -15336,7 +15342,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15620,7 +15626,7 @@
         <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15748,7 +15754,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16035,7 +16041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16572,7 +16578,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>1.83</v>
@@ -16778,7 +16784,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17808,7 +17814,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17886,7 +17892,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18014,7 +18020,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18095,7 +18101,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ82">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18504,7 +18510,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>0.5600000000000001</v>
@@ -18838,7 +18844,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19122,7 +19128,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ87">
         <v>0.87</v>
@@ -19456,7 +19462,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19537,7 +19543,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -19662,7 +19668,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19743,7 +19749,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.54</v>
@@ -19868,7 +19874,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20280,7 +20286,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20358,7 +20364,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>0.6</v>
@@ -21185,7 +21191,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.85</v>
@@ -21310,7 +21316,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21391,7 +21397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21516,7 +21522,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21800,10 +21806,10 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -21928,7 +21934,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22134,7 +22140,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22340,7 +22346,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22418,7 +22424,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
         <v>0.63</v>
@@ -23782,7 +23788,7 @@
         <v>101</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23863,7 +23869,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ110">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -23988,7 +23994,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24066,7 +24072,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
         <v>0.87</v>
@@ -24194,7 +24200,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24272,7 +24278,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.07</v>
@@ -24400,7 +24406,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24606,7 +24612,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24893,7 +24899,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25430,7 +25436,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -26460,7 +26466,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>6.04</v>
@@ -26872,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27156,7 +27162,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27490,7 +27496,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27571,7 +27577,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ128">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>1.95</v>
@@ -27696,7 +27702,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27777,7 +27783,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.8</v>
@@ -27902,7 +27908,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>2.28</v>
@@ -28186,7 +28192,7 @@
         <v>0.5</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>0.6</v>
@@ -28314,7 +28320,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>4.5</v>
@@ -28932,7 +28938,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29138,7 +29144,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29219,7 +29225,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29344,7 +29350,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29550,7 +29556,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29756,7 +29762,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -30040,7 +30046,7 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>0.6</v>
@@ -30452,7 +30458,7 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -30580,7 +30586,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30661,7 +30667,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ143">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -31404,7 +31410,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31610,7 +31616,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31816,7 +31822,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32022,7 +32028,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32228,7 +32234,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32515,7 +32521,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.59</v>
@@ -32846,7 +32852,7 @@
         <v>108</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>2.3</v>
@@ -32924,7 +32930,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33052,7 +33058,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33339,7 +33345,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ156">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR156">
         <v>1.57</v>
@@ -33464,7 +33470,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33670,7 +33676,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33748,7 +33754,7 @@
         <v>0.54</v>
       </c>
       <c r="AP158">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
         <v>0.5600000000000001</v>
@@ -33876,7 +33882,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -33957,7 +33963,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ159">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR159">
         <v>1.65</v>
@@ -34082,7 +34088,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34288,7 +34294,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34494,7 +34500,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34700,7 +34706,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>2.73</v>
@@ -34778,7 +34784,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP163">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
         <v>0.63</v>
@@ -35318,7 +35324,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35524,7 +35530,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35602,7 +35608,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ167">
         <v>1.27</v>
@@ -35730,7 +35736,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -35811,7 +35817,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ168">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR168">
         <v>1.37</v>
@@ -36142,7 +36148,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36348,7 +36354,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36760,7 +36766,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36838,7 +36844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ173">
         <v>2.38</v>
@@ -36966,7 +36972,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37047,7 +37053,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ174">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37253,7 +37259,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR175">
         <v>1.44</v>
@@ -37584,7 +37590,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37662,7 +37668,7 @@
         <v>0.71</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>0.87</v>
@@ -37996,7 +38002,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38202,7 +38208,7 @@
         <v>82</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>3.1</v>
@@ -38614,7 +38620,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q182">
         <v>4.5</v>
@@ -39026,7 +39032,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39232,7 +39238,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39389,6 +39395,418 @@
       </c>
       <c r="BP185">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7844452</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>79</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>85</v>
+      </c>
+      <c r="P186" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q186">
+        <v>2.4</v>
+      </c>
+      <c r="R186">
+        <v>2.2</v>
+      </c>
+      <c r="S186">
+        <v>4</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.1</v>
+      </c>
+      <c r="Z186">
+        <v>1.95</v>
+      </c>
+      <c r="AA186">
+        <v>3.21</v>
+      </c>
+      <c r="AB186">
+        <v>3.39</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.22</v>
+      </c>
+      <c r="AF186">
+        <v>3.52</v>
+      </c>
+      <c r="AG186">
+        <v>1.92</v>
+      </c>
+      <c r="AH186">
+        <v>1.78</v>
+      </c>
+      <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.25</v>
+      </c>
+      <c r="AL186">
+        <v>1.3</v>
+      </c>
+      <c r="AM186">
+        <v>1.85</v>
+      </c>
+      <c r="AN186">
+        <v>1.67</v>
+      </c>
+      <c r="AO186">
+        <v>1.87</v>
+      </c>
+      <c r="AP186">
+        <v>1.75</v>
+      </c>
+      <c r="AQ186">
+        <v>1.75</v>
+      </c>
+      <c r="AR186">
+        <v>1.84</v>
+      </c>
+      <c r="AS186">
+        <v>1.54</v>
+      </c>
+      <c r="AT186">
+        <v>3.38</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>10</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
+        <v>6</v>
+      </c>
+      <c r="BA186">
+        <v>4</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>4</v>
+      </c>
+      <c r="BD186">
+        <v>1.66</v>
+      </c>
+      <c r="BE186">
+        <v>8.4</v>
+      </c>
+      <c r="BF186">
+        <v>2.6</v>
+      </c>
+      <c r="BG186">
+        <v>1.21</v>
+      </c>
+      <c r="BH186">
+        <v>3.58</v>
+      </c>
+      <c r="BI186">
+        <v>1.43</v>
+      </c>
+      <c r="BJ186">
+        <v>2.54</v>
+      </c>
+      <c r="BK186">
+        <v>1.76</v>
+      </c>
+      <c r="BL186">
+        <v>1.95</v>
+      </c>
+      <c r="BM186">
+        <v>2.23</v>
+      </c>
+      <c r="BN186">
+        <v>1.55</v>
+      </c>
+      <c r="BO186">
+        <v>2.92</v>
+      </c>
+      <c r="BP186">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7844454</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>80</v>
+      </c>
+      <c r="H187" t="s">
+        <v>72</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>3</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>9</v>
+      </c>
+      <c r="O187" t="s">
+        <v>208</v>
+      </c>
+      <c r="P187" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q187">
+        <v>2.4</v>
+      </c>
+      <c r="R187">
+        <v>2.25</v>
+      </c>
+      <c r="S187">
+        <v>4</v>
+      </c>
+      <c r="T187">
+        <v>1.33</v>
+      </c>
+      <c r="U187">
+        <v>3.25</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.44</v>
+      </c>
+      <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>2.07</v>
+      </c>
+      <c r="AA187">
+        <v>3.15</v>
+      </c>
+      <c r="AB187">
+        <v>3.13</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE187">
+        <v>1.21</v>
+      </c>
+      <c r="AF187">
+        <v>3.6</v>
+      </c>
+      <c r="AG187">
+        <v>1.9</v>
+      </c>
+      <c r="AH187">
+        <v>1.8</v>
+      </c>
+      <c r="AI187">
+        <v>1.73</v>
+      </c>
+      <c r="AJ187">
+        <v>2</v>
+      </c>
+      <c r="AK187">
+        <v>1.25</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.85</v>
+      </c>
+      <c r="AN187">
+        <v>1.6</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.5</v>
+      </c>
+      <c r="AQ187">
+        <v>1.44</v>
+      </c>
+      <c r="AR187">
+        <v>1.6</v>
+      </c>
+      <c r="AS187">
+        <v>1.25</v>
+      </c>
+      <c r="AT187">
+        <v>2.85</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>9</v>
+      </c>
+      <c r="AY187">
+        <v>16</v>
+      </c>
+      <c r="AZ187">
+        <v>18</v>
+      </c>
+      <c r="BA187">
+        <v>5</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>6</v>
+      </c>
+      <c r="BD187">
+        <v>1.44</v>
+      </c>
+      <c r="BE187">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF187">
+        <v>3.3</v>
+      </c>
+      <c r="BG187">
+        <v>1.2</v>
+      </c>
+      <c r="BH187">
+        <v>3.82</v>
+      </c>
+      <c r="BI187">
+        <v>1.33</v>
+      </c>
+      <c r="BJ187">
+        <v>2.81</v>
+      </c>
+      <c r="BK187">
+        <v>1.62</v>
+      </c>
+      <c r="BL187">
+        <v>2.11</v>
+      </c>
+      <c r="BM187">
+        <v>2.04</v>
+      </c>
+      <c r="BN187">
+        <v>1.69</v>
+      </c>
+      <c r="BO187">
+        <v>2.64</v>
+      </c>
+      <c r="BP187">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -38731,13 +38731,13 @@
         <v>10</v>
       </c>
       <c r="BA182">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB182">
         <v>4</v>
       </c>
       <c r="BC182">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BD182">
         <v>2.4</v>
@@ -38937,13 +38937,13 @@
         <v>14</v>
       </c>
       <c r="BA183">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB183">
         <v>9</v>
       </c>
       <c r="BC183">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD183">
         <v>1.53</v>
@@ -39352,10 +39352,10 @@
         <v>2</v>
       </c>
       <c r="BB185">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC185">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD185">
         <v>1.98</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -39764,10 +39764,10 @@
         <v>5</v>
       </c>
       <c r="BB187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC187">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD187">
         <v>1.44</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,18 @@
     <t>['4', '7', '87', '90+1']</t>
   </si>
   <si>
+    <t>['51', '75']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['20', '79']</t>
+  </si>
+  <si>
+    <t>['14', '43']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -650,9 +662,6 @@
   </si>
   <si>
     <t>['90+3']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['32', '53', '90+5']</t>
@@ -920,6 +929,12 @@
   </si>
   <si>
     <t>['12', '37', '45', '82', '90+3']</t>
+  </si>
+  <si>
+    <t>['49', '58']</t>
+  </si>
+  <si>
+    <t>['37', '44', '64']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1636,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1952,7 +1967,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2030,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>2.38</v>
@@ -2158,7 +2173,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2239,7 +2254,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2442,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2776,7 +2791,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2854,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3060,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3266,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3884,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ13">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4093,7 +4108,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -4502,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>2.2</v>
@@ -4630,7 +4645,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4708,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR17">
         <v>1.31</v>
@@ -4836,7 +4851,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4917,7 +4932,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR18">
         <v>1.61</v>
@@ -5123,7 +5138,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ19">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR19">
         <v>1.28</v>
@@ -5248,7 +5263,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5326,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5532,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.44</v>
@@ -5660,7 +5675,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>4.95</v>
@@ -5866,7 +5881,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6150,7 +6165,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ24">
         <v>0.63</v>
@@ -6278,7 +6293,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6359,7 +6374,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6484,7 +6499,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6562,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ26">
         <v>2.38</v>
@@ -6771,7 +6786,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6896,7 +6911,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6974,10 +6989,10 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7102,7 +7117,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7308,7 +7323,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7386,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7514,7 +7529,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7592,10 +7607,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7720,7 +7735,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7798,7 +7813,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ32">
         <v>1.44</v>
@@ -7926,7 +7941,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8004,10 +8019,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR33">
         <v>2.34</v>
@@ -8338,7 +8353,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8625,7 +8640,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.31</v>
@@ -8956,7 +8971,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9034,10 +9049,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.64</v>
@@ -9162,7 +9177,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9243,7 +9258,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9368,7 +9383,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9446,7 +9461,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>0.63</v>
@@ -9574,7 +9589,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9858,10 +9873,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10064,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.5600000000000001</v>
@@ -10273,7 +10288,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10398,7 +10413,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10476,10 +10491,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10604,7 +10619,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10810,7 +10825,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10888,10 +10903,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ47">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR47">
         <v>1.38</v>
@@ -11016,7 +11031,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11094,10 +11109,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -11428,7 +11443,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11509,7 +11524,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11712,7 +11727,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>1.44</v>
@@ -11840,7 +11855,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -11921,7 +11936,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.35</v>
@@ -12252,7 +12267,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12458,7 +12473,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12536,7 +12551,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>0.63</v>
@@ -12664,7 +12679,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12948,10 +12963,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ57">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.64</v>
@@ -13154,10 +13169,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
         <v>1.4</v>
@@ -13282,7 +13297,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13363,7 +13378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR59">
         <v>1.32</v>
@@ -13488,7 +13503,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13569,7 +13584,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13772,7 +13787,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>2.38</v>
@@ -13978,7 +13993,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14106,7 +14121,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14184,10 +14199,10 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.28</v>
@@ -14312,7 +14327,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14390,10 +14405,10 @@
         <v>0.8</v>
       </c>
       <c r="AP64">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ64">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.94</v>
@@ -14596,10 +14611,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.47</v>
@@ -14724,7 +14739,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14805,7 +14820,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14930,7 +14945,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15011,7 +15026,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR67">
         <v>1.28</v>
@@ -15136,7 +15151,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15214,7 +15229,7 @@
         <v>1.8</v>
       </c>
       <c r="AP68">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15423,7 +15438,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15548,7 +15563,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15626,10 +15641,10 @@
         <v>0.8</v>
       </c>
       <c r="AP70">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15754,7 +15769,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16038,7 +16053,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -16166,7 +16181,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16244,10 +16259,10 @@
         <v>0.83</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.7</v>
@@ -16656,10 +16671,10 @@
         <v>1.83</v>
       </c>
       <c r="AP75">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16784,7 +16799,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17480,10 +17495,10 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
         <v>1.8</v>
@@ -17608,7 +17623,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17892,10 +17907,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -18020,7 +18035,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18098,7 +18113,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.75</v>
@@ -18307,7 +18322,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18844,7 +18859,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18925,7 +18940,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.53</v>
@@ -19128,7 +19143,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ87">
         <v>0.63</v>
@@ -19337,7 +19352,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.54</v>
@@ -19462,7 +19477,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19540,7 +19555,7 @@
         <v>2.14</v>
       </c>
       <c r="AP89">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ89">
         <v>1.75</v>
@@ -19668,7 +19683,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19874,7 +19889,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19952,7 +19967,7 @@
         <v>1.71</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>1.44</v>
@@ -20158,10 +20173,10 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.74</v>
@@ -20286,7 +20301,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20367,7 +20382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>1.34</v>
@@ -20573,7 +20588,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.72</v>
@@ -20776,10 +20791,10 @@
         <v>1.14</v>
       </c>
       <c r="AP95">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -20982,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21188,7 +21203,7 @@
         <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21316,7 +21331,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>2.88</v>
@@ -21394,10 +21409,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ98">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -21728,7 +21743,7 @@
         <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>3.65</v>
@@ -21934,7 +21949,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22012,7 +22027,7 @@
         <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
         <v>2.38</v>
@@ -22140,7 +22155,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22221,7 +22236,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22346,7 +22361,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22630,10 +22645,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.51</v>
@@ -22836,10 +22851,10 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR105">
         <v>1.8</v>
@@ -23045,7 +23060,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ106">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.71</v>
@@ -23248,10 +23263,10 @@
         <v>1.88</v>
       </c>
       <c r="AP107">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.92</v>
@@ -23660,7 +23675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>0.5600000000000001</v>
@@ -23788,7 +23803,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23869,7 +23884,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.46</v>
@@ -23994,7 +24009,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24075,7 +24090,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ111">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24200,7 +24215,7 @@
         <v>101</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24278,7 +24293,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ112">
         <v>1.75</v>
@@ -24406,7 +24421,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24484,10 +24499,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ113">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR113">
         <v>1.8</v>
@@ -24612,7 +24627,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24896,7 +24911,7 @@
         <v>1.11</v>
       </c>
       <c r="AP115">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>1.44</v>
@@ -25436,7 +25451,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25514,10 +25529,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ118">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.86</v>
@@ -25723,7 +25738,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
         <v>1.56</v>
@@ -25926,10 +25941,10 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26132,10 +26147,10 @@
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR121">
         <v>1.44</v>
@@ -26260,7 +26275,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>6.04</v>
@@ -26338,7 +26353,7 @@
         <v>2.5</v>
       </c>
       <c r="AP122">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>2.38</v>
@@ -26547,7 +26562,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR123">
         <v>1.4</v>
@@ -26750,10 +26765,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -26878,7 +26893,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -26956,10 +26971,10 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.74</v>
@@ -27368,7 +27383,7 @@
         <v>1.78</v>
       </c>
       <c r="AP127">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.44</v>
@@ -27496,7 +27511,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27574,7 +27589,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ128">
         <v>1.44</v>
@@ -27989,7 +28004,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ130">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.76</v>
@@ -28114,7 +28129,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>2.28</v>
@@ -28195,7 +28210,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.48</v>
@@ -28320,7 +28335,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -28526,7 +28541,7 @@
         <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>2.05</v>
@@ -28604,7 +28619,7 @@
         <v>2.1</v>
       </c>
       <c r="AP133">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ133">
         <v>1.75</v>
@@ -28732,7 +28747,7 @@
         <v>82</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28938,7 +28953,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29016,10 +29031,10 @@
         <v>0.55</v>
       </c>
       <c r="AP135">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29222,10 +29237,10 @@
         <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ136">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.78</v>
@@ -29350,7 +29365,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29428,10 +29443,10 @@
         <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29556,7 +29571,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29762,7 +29777,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29840,10 +29855,10 @@
         <v>0.91</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.57</v>
@@ -30255,7 +30270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ141">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30667,7 +30682,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ143">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR143">
         <v>1.76</v>
@@ -30792,7 +30807,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>2.2</v>
@@ -30870,7 +30885,7 @@
         <v>2.18</v>
       </c>
       <c r="AP144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ144">
         <v>1.75</v>
@@ -31076,7 +31091,7 @@
         <v>0.36</v>
       </c>
       <c r="AP145">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
         <v>0.5600000000000001</v>
@@ -31204,7 +31219,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -31285,7 +31300,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR146">
         <v>1.5</v>
@@ -31410,7 +31425,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31488,7 +31503,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ147">
         <v>0.63</v>
@@ -31694,10 +31709,10 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.92</v>
@@ -31822,7 +31837,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31903,7 +31918,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR149">
         <v>1.53</v>
@@ -32028,7 +32043,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32106,7 +32121,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.44</v>
@@ -32234,7 +32249,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32312,10 +32327,10 @@
         <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32440,7 +32455,7 @@
         <v>107</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>2.3</v>
@@ -32521,7 +32536,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ152">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.76</v>
@@ -32724,7 +32739,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
         <v>1.44</v>
@@ -32933,7 +32948,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>1.44</v>
@@ -33058,7 +33073,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33136,7 +33151,7 @@
         <v>2.42</v>
       </c>
       <c r="AP155">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ155">
         <v>2.38</v>
@@ -33470,7 +33485,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33676,7 +33691,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33882,7 +33897,7 @@
         <v>190</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>2.95</v>
@@ -33960,10 +33975,10 @@
         <v>0.42</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR159">
         <v>1.62</v>
@@ -34088,7 +34103,7 @@
         <v>124</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>3.58</v>
@@ -34294,7 +34309,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34372,10 +34387,10 @@
         <v>1.46</v>
       </c>
       <c r="AP161">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ161">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>1.94</v>
@@ -34500,7 +34515,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -34578,10 +34593,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR162">
         <v>1.42</v>
@@ -34993,7 +35008,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35118,7 +35133,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>2.73</v>
@@ -35324,7 +35339,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35402,7 +35417,7 @@
         <v>2.46</v>
       </c>
       <c r="AP166">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
         <v>2.38</v>
@@ -35530,7 +35545,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35611,7 +35626,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ167">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR167">
         <v>1.81</v>
@@ -35736,7 +35751,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -35814,7 +35829,7 @@
         <v>1.08</v>
       </c>
       <c r="AP168">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ168">
         <v>1.44</v>
@@ -36020,10 +36035,10 @@
         <v>1.15</v>
       </c>
       <c r="AP169">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR169">
         <v>1.73</v>
@@ -36148,7 +36163,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36226,7 +36241,7 @@
         <v>0.57</v>
       </c>
       <c r="AP170">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ170">
         <v>0.5600000000000001</v>
@@ -36354,7 +36369,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36435,7 +36450,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36641,7 +36656,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -36766,7 +36781,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36972,7 +36987,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37050,7 +37065,7 @@
         <v>2</v>
       </c>
       <c r="AP174">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>1.75</v>
@@ -37465,7 +37480,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37590,7 +37605,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37671,7 +37686,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR177">
         <v>1.56</v>
@@ -37874,7 +37889,7 @@
         <v>0.64</v>
       </c>
       <c r="AP178">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
         <v>0.63</v>
@@ -38002,7 +38017,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38080,7 +38095,7 @@
         <v>1.64</v>
       </c>
       <c r="AP179">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ179">
         <v>1.44</v>
@@ -38286,10 +38301,10 @@
         <v>1.14</v>
       </c>
       <c r="AP180">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR180">
         <v>1.68</v>
@@ -38414,7 +38429,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38492,10 +38507,10 @@
         <v>0.43</v>
       </c>
       <c r="AP181">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ181">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR181">
         <v>1.37</v>
@@ -38620,7 +38635,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q182">
         <v>2.5</v>
@@ -38826,7 +38841,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>4.5</v>
@@ -39238,7 +39253,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39650,7 +39665,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39807,6 +39822,1242 @@
       </c>
       <c r="BP187">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7844461</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>75</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>145</v>
+      </c>
+      <c r="P188" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q188">
+        <v>4.65</v>
+      </c>
+      <c r="R188">
+        <v>2.11</v>
+      </c>
+      <c r="S188">
+        <v>2.4</v>
+      </c>
+      <c r="T188">
+        <v>1.37</v>
+      </c>
+      <c r="U188">
+        <v>2.85</v>
+      </c>
+      <c r="V188">
+        <v>2.77</v>
+      </c>
+      <c r="W188">
+        <v>1.39</v>
+      </c>
+      <c r="X188">
+        <v>6.7</v>
+      </c>
+      <c r="Y188">
+        <v>1.09</v>
+      </c>
+      <c r="Z188">
+        <v>3.08</v>
+      </c>
+      <c r="AA188">
+        <v>3.09</v>
+      </c>
+      <c r="AB188">
+        <v>2.12</v>
+      </c>
+      <c r="AC188">
+        <v>1</v>
+      </c>
+      <c r="AD188">
+        <v>9.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.24</v>
+      </c>
+      <c r="AF188">
+        <v>3.36</v>
+      </c>
+      <c r="AG188">
+        <v>1.91</v>
+      </c>
+      <c r="AH188">
+        <v>1.79</v>
+      </c>
+      <c r="AI188">
+        <v>1.77</v>
+      </c>
+      <c r="AJ188">
+        <v>1.94</v>
+      </c>
+      <c r="AK188">
+        <v>1.94</v>
+      </c>
+      <c r="AL188">
+        <v>1.28</v>
+      </c>
+      <c r="AM188">
+        <v>1.22</v>
+      </c>
+      <c r="AN188">
+        <v>1.07</v>
+      </c>
+      <c r="AO188">
+        <v>0.6</v>
+      </c>
+      <c r="AP188">
+        <v>1</v>
+      </c>
+      <c r="AQ188">
+        <v>0.75</v>
+      </c>
+      <c r="AR188">
+        <v>1.37</v>
+      </c>
+      <c r="AS188">
+        <v>1.22</v>
+      </c>
+      <c r="AT188">
+        <v>2.59</v>
+      </c>
+      <c r="AU188">
+        <v>-1</v>
+      </c>
+      <c r="AV188">
+        <v>-1</v>
+      </c>
+      <c r="AW188">
+        <v>-1</v>
+      </c>
+      <c r="AX188">
+        <v>-1</v>
+      </c>
+      <c r="AY188">
+        <v>-1</v>
+      </c>
+      <c r="AZ188">
+        <v>-1</v>
+      </c>
+      <c r="BA188">
+        <v>-1</v>
+      </c>
+      <c r="BB188">
+        <v>-1</v>
+      </c>
+      <c r="BC188">
+        <v>-1</v>
+      </c>
+      <c r="BD188">
+        <v>3.16</v>
+      </c>
+      <c r="BE188">
+        <v>8.5</v>
+      </c>
+      <c r="BF188">
+        <v>1.51</v>
+      </c>
+      <c r="BG188">
+        <v>1.24</v>
+      </c>
+      <c r="BH188">
+        <v>3.5</v>
+      </c>
+      <c r="BI188">
+        <v>1.45</v>
+      </c>
+      <c r="BJ188">
+        <v>2.55</v>
+      </c>
+      <c r="BK188">
+        <v>1.82</v>
+      </c>
+      <c r="BL188">
+        <v>1.98</v>
+      </c>
+      <c r="BM188">
+        <v>2.19</v>
+      </c>
+      <c r="BN188">
+        <v>1.63</v>
+      </c>
+      <c r="BO188">
+        <v>2.75</v>
+      </c>
+      <c r="BP188">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7844457</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>209</v>
+      </c>
+      <c r="P189" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q189">
+        <v>1.92</v>
+      </c>
+      <c r="R189">
+        <v>2.23</v>
+      </c>
+      <c r="S189">
+        <v>7.4</v>
+      </c>
+      <c r="T189">
+        <v>1.37</v>
+      </c>
+      <c r="U189">
+        <v>2.85</v>
+      </c>
+      <c r="V189">
+        <v>2.89</v>
+      </c>
+      <c r="W189">
+        <v>1.36</v>
+      </c>
+      <c r="X189">
+        <v>6.7</v>
+      </c>
+      <c r="Y189">
+        <v>1.09</v>
+      </c>
+      <c r="Z189">
+        <v>1.71</v>
+      </c>
+      <c r="AA189">
+        <v>3.51</v>
+      </c>
+      <c r="AB189">
+        <v>4</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.25</v>
+      </c>
+      <c r="AF189">
+        <v>3.28</v>
+      </c>
+      <c r="AG189">
+        <v>1.77</v>
+      </c>
+      <c r="AH189">
+        <v>1.93</v>
+      </c>
+      <c r="AI189">
+        <v>2.17</v>
+      </c>
+      <c r="AJ189">
+        <v>1.61</v>
+      </c>
+      <c r="AK189">
+        <v>1.06</v>
+      </c>
+      <c r="AL189">
+        <v>1.19</v>
+      </c>
+      <c r="AM189">
+        <v>2.86</v>
+      </c>
+      <c r="AN189">
+        <v>1.4</v>
+      </c>
+      <c r="AO189">
+        <v>1.07</v>
+      </c>
+      <c r="AP189">
+        <v>1.5</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.69</v>
+      </c>
+      <c r="AS189">
+        <v>1.47</v>
+      </c>
+      <c r="AT189">
+        <v>3.16</v>
+      </c>
+      <c r="AU189">
+        <v>-1</v>
+      </c>
+      <c r="AV189">
+        <v>-1</v>
+      </c>
+      <c r="AW189">
+        <v>-1</v>
+      </c>
+      <c r="AX189">
+        <v>-1</v>
+      </c>
+      <c r="AY189">
+        <v>-1</v>
+      </c>
+      <c r="AZ189">
+        <v>-1</v>
+      </c>
+      <c r="BA189">
+        <v>-1</v>
+      </c>
+      <c r="BB189">
+        <v>-1</v>
+      </c>
+      <c r="BC189">
+        <v>-1</v>
+      </c>
+      <c r="BD189">
+        <v>1.41</v>
+      </c>
+      <c r="BE189">
+        <v>9</v>
+      </c>
+      <c r="BF189">
+        <v>3.49</v>
+      </c>
+      <c r="BG189">
+        <v>1.2</v>
+      </c>
+      <c r="BH189">
+        <v>3.9</v>
+      </c>
+      <c r="BI189">
+        <v>1.38</v>
+      </c>
+      <c r="BJ189">
+        <v>2.8</v>
+      </c>
+      <c r="BK189">
+        <v>1.64</v>
+      </c>
+      <c r="BL189">
+        <v>2.18</v>
+      </c>
+      <c r="BM189">
+        <v>2.01</v>
+      </c>
+      <c r="BN189">
+        <v>1.75</v>
+      </c>
+      <c r="BO189">
+        <v>2.5</v>
+      </c>
+      <c r="BP189">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7844458</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>210</v>
+      </c>
+      <c r="P190" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q190">
+        <v>1.58</v>
+      </c>
+      <c r="R190">
+        <v>3.05</v>
+      </c>
+      <c r="S190">
+        <v>6.9</v>
+      </c>
+      <c r="T190">
+        <v>1.13</v>
+      </c>
+      <c r="U190">
+        <v>5.4</v>
+      </c>
+      <c r="V190">
+        <v>1.79</v>
+      </c>
+      <c r="W190">
+        <v>1.96</v>
+      </c>
+      <c r="X190">
+        <v>3.3</v>
+      </c>
+      <c r="Y190">
+        <v>1.31</v>
+      </c>
+      <c r="Z190">
+        <v>1.24</v>
+      </c>
+      <c r="AA190">
+        <v>5.6</v>
+      </c>
+      <c r="AB190">
+        <v>7.4</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>29</v>
+      </c>
+      <c r="AE190">
+        <v>1</v>
+      </c>
+      <c r="AF190">
+        <v>9</v>
+      </c>
+      <c r="AG190">
+        <v>1.28</v>
+      </c>
+      <c r="AH190">
+        <v>3.34</v>
+      </c>
+      <c r="AI190">
+        <v>1.5</v>
+      </c>
+      <c r="AJ190">
+        <v>2.41</v>
+      </c>
+      <c r="AK190">
+        <v>1.05</v>
+      </c>
+      <c r="AL190">
+        <v>1.1</v>
+      </c>
+      <c r="AM190">
+        <v>3.8</v>
+      </c>
+      <c r="AN190">
+        <v>2.07</v>
+      </c>
+      <c r="AO190">
+        <v>1.27</v>
+      </c>
+      <c r="AP190">
+        <v>2.13</v>
+      </c>
+      <c r="AQ190">
+        <v>1.19</v>
+      </c>
+      <c r="AR190">
+        <v>1.98</v>
+      </c>
+      <c r="AS190">
+        <v>1.28</v>
+      </c>
+      <c r="AT190">
+        <v>3.26</v>
+      </c>
+      <c r="AU190">
+        <v>-1</v>
+      </c>
+      <c r="AV190">
+        <v>-1</v>
+      </c>
+      <c r="AW190">
+        <v>-1</v>
+      </c>
+      <c r="AX190">
+        <v>-1</v>
+      </c>
+      <c r="AY190">
+        <v>-1</v>
+      </c>
+      <c r="AZ190">
+        <v>-1</v>
+      </c>
+      <c r="BA190">
+        <v>-1</v>
+      </c>
+      <c r="BB190">
+        <v>-1</v>
+      </c>
+      <c r="BC190">
+        <v>-1</v>
+      </c>
+      <c r="BD190">
+        <v>1.21</v>
+      </c>
+      <c r="BE190">
+        <v>11</v>
+      </c>
+      <c r="BF190">
+        <v>5.6</v>
+      </c>
+      <c r="BG190">
+        <v>1.16</v>
+      </c>
+      <c r="BH190">
+        <v>4.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.3</v>
+      </c>
+      <c r="BJ190">
+        <v>3.12</v>
+      </c>
+      <c r="BK190">
+        <v>1.53</v>
+      </c>
+      <c r="BL190">
+        <v>2.35</v>
+      </c>
+      <c r="BM190">
+        <v>1.85</v>
+      </c>
+      <c r="BN190">
+        <v>1.89</v>
+      </c>
+      <c r="BO190">
+        <v>2.32</v>
+      </c>
+      <c r="BP190">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7844459</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>80</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>82</v>
+      </c>
+      <c r="P191" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q191">
+        <v>2.98</v>
+      </c>
+      <c r="R191">
+        <v>2.15</v>
+      </c>
+      <c r="S191">
+        <v>3.28</v>
+      </c>
+      <c r="T191">
+        <v>1.33</v>
+      </c>
+      <c r="U191">
+        <v>3.04</v>
+      </c>
+      <c r="V191">
+        <v>2.65</v>
+      </c>
+      <c r="W191">
+        <v>1.42</v>
+      </c>
+      <c r="X191">
+        <v>6.3</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>2.16</v>
+      </c>
+      <c r="AA191">
+        <v>3.2</v>
+      </c>
+      <c r="AB191">
+        <v>2.9</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>10</v>
+      </c>
+      <c r="AE191">
+        <v>1.2</v>
+      </c>
+      <c r="AF191">
+        <v>3.74</v>
+      </c>
+      <c r="AG191">
+        <v>1.78</v>
+      </c>
+      <c r="AH191">
+        <v>1.92</v>
+      </c>
+      <c r="AI191">
+        <v>1.63</v>
+      </c>
+      <c r="AJ191">
+        <v>2.14</v>
+      </c>
+      <c r="AK191">
+        <v>1.44</v>
+      </c>
+      <c r="AL191">
+        <v>1.28</v>
+      </c>
+      <c r="AM191">
+        <v>1.54</v>
+      </c>
+      <c r="AN191">
+        <v>2.07</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>1.94</v>
+      </c>
+      <c r="AQ191">
+        <v>1.44</v>
+      </c>
+      <c r="AR191">
+        <v>1.78</v>
+      </c>
+      <c r="AS191">
+        <v>1.46</v>
+      </c>
+      <c r="AT191">
+        <v>3.24</v>
+      </c>
+      <c r="AU191">
+        <v>-1</v>
+      </c>
+      <c r="AV191">
+        <v>-1</v>
+      </c>
+      <c r="AW191">
+        <v>-1</v>
+      </c>
+      <c r="AX191">
+        <v>-1</v>
+      </c>
+      <c r="AY191">
+        <v>-1</v>
+      </c>
+      <c r="AZ191">
+        <v>-1</v>
+      </c>
+      <c r="BA191">
+        <v>-1</v>
+      </c>
+      <c r="BB191">
+        <v>-1</v>
+      </c>
+      <c r="BC191">
+        <v>-1</v>
+      </c>
+      <c r="BD191">
+        <v>1.75</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
+        <v>2.42</v>
+      </c>
+      <c r="BG191">
+        <v>1.22</v>
+      </c>
+      <c r="BH191">
+        <v>3.7</v>
+      </c>
+      <c r="BI191">
+        <v>1.42</v>
+      </c>
+      <c r="BJ191">
+        <v>2.67</v>
+      </c>
+      <c r="BK191">
+        <v>1.69</v>
+      </c>
+      <c r="BL191">
+        <v>2.09</v>
+      </c>
+      <c r="BM191">
+        <v>2.09</v>
+      </c>
+      <c r="BN191">
+        <v>1.69</v>
+      </c>
+      <c r="BO191">
+        <v>2.62</v>
+      </c>
+      <c r="BP191">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7844460</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>76</v>
+      </c>
+      <c r="H192" t="s">
+        <v>79</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>211</v>
+      </c>
+      <c r="P192" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q192">
+        <v>3.38</v>
+      </c>
+      <c r="R192">
+        <v>2.11</v>
+      </c>
+      <c r="S192">
+        <v>2.99</v>
+      </c>
+      <c r="T192">
+        <v>1.38</v>
+      </c>
+      <c r="U192">
+        <v>2.81</v>
+      </c>
+      <c r="V192">
+        <v>2.77</v>
+      </c>
+      <c r="W192">
+        <v>1.39</v>
+      </c>
+      <c r="X192">
+        <v>7</v>
+      </c>
+      <c r="Y192">
+        <v>1.08</v>
+      </c>
+      <c r="Z192">
+        <v>2.95</v>
+      </c>
+      <c r="AA192">
+        <v>3.25</v>
+      </c>
+      <c r="AB192">
+        <v>2.12</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE192">
+        <v>1.26</v>
+      </c>
+      <c r="AF192">
+        <v>3.22</v>
+      </c>
+      <c r="AG192">
+        <v>1.89</v>
+      </c>
+      <c r="AH192">
+        <v>1.81</v>
+      </c>
+      <c r="AI192">
+        <v>1.71</v>
+      </c>
+      <c r="AJ192">
+        <v>2.02</v>
+      </c>
+      <c r="AK192">
+        <v>1.53</v>
+      </c>
+      <c r="AL192">
+        <v>1.3</v>
+      </c>
+      <c r="AM192">
+        <v>1.43</v>
+      </c>
+      <c r="AN192">
+        <v>0.87</v>
+      </c>
+      <c r="AO192">
+        <v>0.87</v>
+      </c>
+      <c r="AP192">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.36</v>
+      </c>
+      <c r="AS192">
+        <v>1.26</v>
+      </c>
+      <c r="AT192">
+        <v>2.62</v>
+      </c>
+      <c r="AU192">
+        <v>-1</v>
+      </c>
+      <c r="AV192">
+        <v>-1</v>
+      </c>
+      <c r="AW192">
+        <v>-1</v>
+      </c>
+      <c r="AX192">
+        <v>-1</v>
+      </c>
+      <c r="AY192">
+        <v>-1</v>
+      </c>
+      <c r="AZ192">
+        <v>-1</v>
+      </c>
+      <c r="BA192">
+        <v>-1</v>
+      </c>
+      <c r="BB192">
+        <v>-1</v>
+      </c>
+      <c r="BC192">
+        <v>-1</v>
+      </c>
+      <c r="BD192">
+        <v>2.28</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>1.85</v>
+      </c>
+      <c r="BG192">
+        <v>1.19</v>
+      </c>
+      <c r="BH192">
+        <v>4</v>
+      </c>
+      <c r="BI192">
+        <v>1.37</v>
+      </c>
+      <c r="BJ192">
+        <v>2.85</v>
+      </c>
+      <c r="BK192">
+        <v>1.62</v>
+      </c>
+      <c r="BL192">
+        <v>2.22</v>
+      </c>
+      <c r="BM192">
+        <v>1.98</v>
+      </c>
+      <c r="BN192">
+        <v>1.77</v>
+      </c>
+      <c r="BO192">
+        <v>2.46</v>
+      </c>
+      <c r="BP192">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7844462</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" t="s">
+        <v>70</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>212</v>
+      </c>
+      <c r="P193" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q193">
+        <v>2.45</v>
+      </c>
+      <c r="R193">
+        <v>2.13</v>
+      </c>
+      <c r="S193">
+        <v>4.4</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>2.89</v>
+      </c>
+      <c r="V193">
+        <v>2.81</v>
+      </c>
+      <c r="W193">
+        <v>1.38</v>
+      </c>
+      <c r="X193">
+        <v>6.8</v>
+      </c>
+      <c r="Y193">
+        <v>1.08</v>
+      </c>
+      <c r="Z193">
+        <v>2.01</v>
+      </c>
+      <c r="AA193">
+        <v>3.45</v>
+      </c>
+      <c r="AB193">
+        <v>3.01</v>
+      </c>
+      <c r="AC193">
+        <v>1</v>
+      </c>
+      <c r="AD193">
+        <v>9.1</v>
+      </c>
+      <c r="AE193">
+        <v>1.24</v>
+      </c>
+      <c r="AF193">
+        <v>3.36</v>
+      </c>
+      <c r="AG193">
+        <v>1.88</v>
+      </c>
+      <c r="AH193">
+        <v>1.82</v>
+      </c>
+      <c r="AI193">
+        <v>1.77</v>
+      </c>
+      <c r="AJ193">
+        <v>1.94</v>
+      </c>
+      <c r="AK193">
+        <v>1.24</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.87</v>
+      </c>
+      <c r="AN193">
+        <v>1.47</v>
+      </c>
+      <c r="AO193">
+        <v>0.87</v>
+      </c>
+      <c r="AP193">
+        <v>1.56</v>
+      </c>
+      <c r="AQ193">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR193">
+        <v>1.66</v>
+      </c>
+      <c r="AS193">
+        <v>1.32</v>
+      </c>
+      <c r="AT193">
+        <v>2.98</v>
+      </c>
+      <c r="AU193">
+        <v>-1</v>
+      </c>
+      <c r="AV193">
+        <v>-1</v>
+      </c>
+      <c r="AW193">
+        <v>-1</v>
+      </c>
+      <c r="AX193">
+        <v>-1</v>
+      </c>
+      <c r="AY193">
+        <v>-1</v>
+      </c>
+      <c r="AZ193">
+        <v>-1</v>
+      </c>
+      <c r="BA193">
+        <v>-1</v>
+      </c>
+      <c r="BB193">
+        <v>-1</v>
+      </c>
+      <c r="BC193">
+        <v>-1</v>
+      </c>
+      <c r="BD193">
+        <v>1.59</v>
+      </c>
+      <c r="BE193">
+        <v>8.5</v>
+      </c>
+      <c r="BF193">
+        <v>2.78</v>
+      </c>
+      <c r="BG193">
+        <v>1.22</v>
+      </c>
+      <c r="BH193">
+        <v>3.65</v>
+      </c>
+      <c r="BI193">
+        <v>1.42</v>
+      </c>
+      <c r="BJ193">
+        <v>2.65</v>
+      </c>
+      <c r="BK193">
+        <v>1.7</v>
+      </c>
+      <c r="BL193">
+        <v>2.07</v>
+      </c>
+      <c r="BM193">
+        <v>2.11</v>
+      </c>
+      <c r="BN193">
+        <v>1.68</v>
+      </c>
+      <c r="BO193">
+        <v>2.65</v>
+      </c>
+      <c r="BP193">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -39964,31 +39964,31 @@
         <v>2.59</v>
       </c>
       <c r="AU188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV188">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW188">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX188">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY188">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ188">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB188">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC188">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD188">
         <v>3.16</v>
@@ -40170,31 +40170,31 @@
         <v>3.16</v>
       </c>
       <c r="AU189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV189">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW189">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX189">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY189">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA189">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB189">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC189">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD189">
         <v>1.41</v>
@@ -40376,31 +40376,31 @@
         <v>3.26</v>
       </c>
       <c r="AU190">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV190">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX190">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AY190">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ190">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BA190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB190">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BC190">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD190">
         <v>1.21</v>
@@ -40582,31 +40582,31 @@
         <v>3.24</v>
       </c>
       <c r="AU191">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV191">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW191">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX191">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY191">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ191">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA191">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB191">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC191">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD191">
         <v>1.75</v>
@@ -40788,31 +40788,31 @@
         <v>2.62</v>
       </c>
       <c r="AU192">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV192">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW192">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX192">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY192">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ192">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA192">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB192">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC192">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD192">
         <v>2.28</v>
@@ -40994,31 +40994,31 @@
         <v>2.98</v>
       </c>
       <c r="AU193">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV193">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW193">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX193">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY193">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ193">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA193">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC193">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD193">
         <v>1.59</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,12 @@
     <t>['14', '43']</t>
   </si>
   <si>
+    <t>['15', '16']</t>
+  </si>
+  <si>
+    <t>['43', '57']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -935,6 +941,9 @@
   </si>
   <si>
     <t>['37', '44', '64']</t>
+  </si>
+  <si>
+    <t>['33', '58']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1645,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1967,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2173,7 +2182,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2251,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -2791,7 +2800,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3693,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12">
         <v>1.44</v>
@@ -3902,7 +3911,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4105,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4851,7 +4860,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -5263,7 +5272,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5675,7 +5684,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>4.95</v>
@@ -5881,7 +5890,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5959,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6293,7 +6302,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6374,7 +6383,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6499,7 +6508,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6911,7 +6920,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6992,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7117,7 +7126,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7323,7 +7332,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7529,7 +7538,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7735,7 +7744,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>2.1</v>
@@ -7941,7 +7950,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -8353,7 +8362,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8431,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ35">
         <v>2.38</v>
@@ -8843,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8971,7 +8980,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9177,7 +9186,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9383,7 +9392,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9589,7 +9598,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9667,7 +9676,7 @@
         <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41">
         <v>1.44</v>
@@ -10288,7 +10297,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10413,7 +10422,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10619,7 +10628,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10825,7 +10834,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -11031,7 +11040,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11315,7 +11324,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11443,7 +11452,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11855,7 +11864,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.22</v>
@@ -11933,7 +11942,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12267,7 +12276,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12473,7 +12482,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12679,7 +12688,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12757,7 +12766,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -12966,7 +12975,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.64</v>
@@ -13297,7 +13306,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13503,7 +13512,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14121,7 +14130,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14327,7 +14336,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14739,7 +14748,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14817,7 +14826,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ66">
         <v>1.19</v>
@@ -14945,7 +14954,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15151,7 +15160,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15435,7 +15444,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15563,7 +15572,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15769,7 +15778,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16181,7 +16190,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16262,7 +16271,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.7</v>
@@ -16465,7 +16474,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16799,7 +16808,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17623,7 +17632,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -18035,7 +18044,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18525,7 +18534,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
         <v>0.5600000000000001</v>
@@ -18731,7 +18740,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>2.38</v>
@@ -18859,7 +18868,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19349,10 +19358,10 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.54</v>
@@ -19477,7 +19486,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19683,7 +19692,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19889,7 +19898,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20301,7 +20310,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -21331,7 +21340,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>2.88</v>
@@ -21743,7 +21752,7 @@
         <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3.65</v>
@@ -21949,7 +21958,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22155,7 +22164,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22233,7 +22242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102">
         <v>0.8100000000000001</v>
@@ -22361,7 +22370,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22439,7 +22448,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ103">
         <v>0.63</v>
@@ -22648,7 +22657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.51</v>
@@ -23803,7 +23812,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24009,7 +24018,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>2.1</v>
@@ -24087,7 +24096,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP111">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
         <v>0.8100000000000001</v>
@@ -24215,7 +24224,7 @@
         <v>101</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24421,7 +24430,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24627,7 +24636,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25117,7 +25126,7 @@
         <v>0.44</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116">
         <v>0.5600000000000001</v>
@@ -25451,7 +25460,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25532,7 +25541,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>1.86</v>
@@ -26275,7 +26284,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>6.04</v>
@@ -26893,7 +26902,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27511,7 +27520,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -28001,7 +28010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28129,7 +28138,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>2.28</v>
@@ -28207,10 +28216,10 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.48</v>
@@ -28335,7 +28344,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -28541,7 +28550,7 @@
         <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>2.05</v>
@@ -28747,7 +28756,7 @@
         <v>82</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28953,7 +28962,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29365,7 +29374,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29571,7 +29580,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29649,7 +29658,7 @@
         <v>2.36</v>
       </c>
       <c r="AP138">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ138">
         <v>2.38</v>
@@ -29777,7 +29786,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29858,7 +29867,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.57</v>
@@ -30473,7 +30482,7 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -30807,7 +30816,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>2.2</v>
@@ -31219,7 +31228,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -31425,7 +31434,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31837,7 +31846,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -31915,7 +31924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
         <v>1.44</v>
@@ -32043,7 +32052,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32249,7 +32258,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32330,7 +32339,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32455,7 +32464,7 @@
         <v>107</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>2.3</v>
@@ -32533,7 +32542,7 @@
         <v>1.08</v>
       </c>
       <c r="AP152">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32948,7 +32957,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR154">
         <v>1.44</v>
@@ -33073,7 +33082,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33357,7 +33366,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ156">
         <v>1.75</v>
@@ -33485,7 +33494,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33691,7 +33700,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33897,7 +33906,7 @@
         <v>190</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>2.95</v>
@@ -34103,7 +34112,7 @@
         <v>124</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>3.58</v>
@@ -34309,7 +34318,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34515,7 +34524,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -35133,7 +35142,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>2.73</v>
@@ -35339,7 +35348,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35545,7 +35554,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35623,7 +35632,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ167">
         <v>1.19</v>
@@ -35751,7 +35760,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36163,7 +36172,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36369,7 +36378,7 @@
         <v>168</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>2.47</v>
@@ -36447,7 +36456,7 @@
         <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36656,7 +36665,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -36781,7 +36790,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36859,7 +36868,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
         <v>2.38</v>
@@ -36987,7 +36996,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37605,7 +37614,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38017,7 +38026,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38429,7 +38438,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38635,7 +38644,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q182">
         <v>2.5</v>
@@ -38841,7 +38850,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q183">
         <v>4.5</v>
@@ -39253,7 +39262,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39331,7 +39340,7 @@
         <v>1.53</v>
       </c>
       <c r="AP185">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
         <v>1.44</v>
@@ -39537,7 +39546,7 @@
         <v>1.87</v>
       </c>
       <c r="AP186">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ186">
         <v>1.75</v>
@@ -39665,7 +39674,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39871,7 +39880,7 @@
         <v>145</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -40489,7 +40498,7 @@
         <v>82</v>
       </c>
       <c r="P191" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q191">
         <v>2.98</v>
@@ -40695,7 +40704,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q192">
         <v>3.38</v>
@@ -40776,7 +40785,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR192">
         <v>1.36</v>
@@ -41058,6 +41067,418 @@
       </c>
       <c r="BP193">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7900273</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45797.625</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>213</v>
+      </c>
+      <c r="P194" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q194">
+        <v>2.4</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>4</v>
+      </c>
+      <c r="T194">
+        <v>1.36</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.63</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>6.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.1</v>
+      </c>
+      <c r="Z194">
+        <v>2.01</v>
+      </c>
+      <c r="AA194">
+        <v>3.45</v>
+      </c>
+      <c r="AB194">
+        <v>3.01</v>
+      </c>
+      <c r="AC194">
+        <v>1.04</v>
+      </c>
+      <c r="AD194">
+        <v>9</v>
+      </c>
+      <c r="AE194">
+        <v>1.25</v>
+      </c>
+      <c r="AF194">
+        <v>3.7</v>
+      </c>
+      <c r="AG194">
+        <v>1.88</v>
+      </c>
+      <c r="AH194">
+        <v>1.82</v>
+      </c>
+      <c r="AI194">
+        <v>1.8</v>
+      </c>
+      <c r="AJ194">
+        <v>1.91</v>
+      </c>
+      <c r="AK194">
+        <v>1.3</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.75</v>
+      </c>
+      <c r="AN194">
+        <v>1.38</v>
+      </c>
+      <c r="AO194">
+        <v>1.16</v>
+      </c>
+      <c r="AP194">
+        <v>1.36</v>
+      </c>
+      <c r="AQ194">
+        <v>1.15</v>
+      </c>
+      <c r="AR194">
+        <v>1.46</v>
+      </c>
+      <c r="AS194">
+        <v>1.56</v>
+      </c>
+      <c r="AT194">
+        <v>3.02</v>
+      </c>
+      <c r="AU194">
+        <v>10</v>
+      </c>
+      <c r="AV194">
+        <v>7</v>
+      </c>
+      <c r="AW194">
+        <v>7</v>
+      </c>
+      <c r="AX194">
+        <v>8</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>15</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>11</v>
+      </c>
+      <c r="BC194">
+        <v>15</v>
+      </c>
+      <c r="BD194">
+        <v>1.74</v>
+      </c>
+      <c r="BE194">
+        <v>8.6</v>
+      </c>
+      <c r="BF194">
+        <v>2.41</v>
+      </c>
+      <c r="BG194">
+        <v>1.2</v>
+      </c>
+      <c r="BH194">
+        <v>3.9</v>
+      </c>
+      <c r="BI194">
+        <v>1.3</v>
+      </c>
+      <c r="BJ194">
+        <v>2.97</v>
+      </c>
+      <c r="BK194">
+        <v>1.56</v>
+      </c>
+      <c r="BL194">
+        <v>2.21</v>
+      </c>
+      <c r="BM194">
+        <v>1.95</v>
+      </c>
+      <c r="BN194">
+        <v>1.76</v>
+      </c>
+      <c r="BO194">
+        <v>2.51</v>
+      </c>
+      <c r="BP194">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7901357</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45797.625</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>80</v>
+      </c>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>214</v>
+      </c>
+      <c r="P195" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>2.4</v>
+      </c>
+      <c r="S195">
+        <v>5.5</v>
+      </c>
+      <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.38</v>
+      </c>
+      <c r="W195">
+        <v>1.53</v>
+      </c>
+      <c r="X195">
+        <v>5.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>1.59</v>
+      </c>
+      <c r="AA195">
+        <v>3.82</v>
+      </c>
+      <c r="AB195">
+        <v>4.4</v>
+      </c>
+      <c r="AC195">
+        <v>1.03</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.2</v>
+      </c>
+      <c r="AF195">
+        <v>4.33</v>
+      </c>
+      <c r="AG195">
+        <v>1.6</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.12</v>
+      </c>
+      <c r="AL195">
+        <v>1.19</v>
+      </c>
+      <c r="AM195">
+        <v>2.65</v>
+      </c>
+      <c r="AN195">
+        <v>1.59</v>
+      </c>
+      <c r="AO195">
+        <v>1.25</v>
+      </c>
+      <c r="AP195">
+        <v>1.64</v>
+      </c>
+      <c r="AQ195">
+        <v>1.21</v>
+      </c>
+      <c r="AR195">
+        <v>1.62</v>
+      </c>
+      <c r="AS195">
+        <v>1.46</v>
+      </c>
+      <c r="AT195">
+        <v>3.08</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
+        <v>2</v>
+      </c>
+      <c r="AW195">
+        <v>10</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>22</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>4</v>
+      </c>
+      <c r="BD195">
+        <v>1.35</v>
+      </c>
+      <c r="BE195">
+        <v>9.6</v>
+      </c>
+      <c r="BF195">
+        <v>3.84</v>
+      </c>
+      <c r="BG195">
+        <v>1.26</v>
+      </c>
+      <c r="BH195">
+        <v>3.35</v>
+      </c>
+      <c r="BI195">
+        <v>1.41</v>
+      </c>
+      <c r="BJ195">
+        <v>2.52</v>
+      </c>
+      <c r="BK195">
+        <v>1.75</v>
+      </c>
+      <c r="BL195">
+        <v>1.92</v>
+      </c>
+      <c r="BM195">
+        <v>2.25</v>
+      </c>
+      <c r="BN195">
+        <v>1.57</v>
+      </c>
+      <c r="BO195">
+        <v>2.98</v>
+      </c>
+      <c r="BP195">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>['14', '43']</t>
+  </si>
+  <si>
+    <t>['43', '57']</t>
   </si>
   <si>
     <t>['15', '16']</t>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1645,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1973,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2179,7 +2182,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2797,7 +2800,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3699,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12">
         <v>1.44</v>
@@ -3908,7 +3911,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4857,7 +4860,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -5269,7 +5272,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5681,7 +5684,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5887,7 +5890,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6299,7 +6302,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6505,7 +6508,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6586,7 +6589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.13</v>
@@ -6711,7 +6714,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6792,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27">
         <v>1.13</v>
@@ -7123,7 +7126,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7329,7 +7332,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7535,7 +7538,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7947,7 +7950,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8153,7 +8156,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>1.83</v>
@@ -8359,7 +8362,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8437,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ35">
         <v>2.38</v>
@@ -8977,7 +8980,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9183,7 +9186,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9389,7 +9392,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9595,7 +9598,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10294,7 +10297,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10419,7 +10422,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10625,7 +10628,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10831,7 +10834,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -11037,7 +11040,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11321,7 +11324,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11655,7 +11658,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11861,7 +11864,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12067,7 +12070,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12479,7 +12482,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12685,7 +12688,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12763,7 +12766,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -12972,7 +12975,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.64</v>
@@ -13097,7 +13100,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13303,7 +13306,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14127,7 +14130,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14539,7 +14542,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14745,7 +14748,7 @@
         <v>120</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14823,7 +14826,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ66">
         <v>1.19</v>
@@ -14951,7 +14954,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15157,7 +15160,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15441,7 +15444,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15569,7 +15572,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15775,7 +15778,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16187,7 +16190,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16268,7 +16271,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.7</v>
@@ -16805,7 +16808,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17629,7 +17632,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -18041,7 +18044,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18531,7 +18534,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
         <v>0.5600000000000001</v>
@@ -19071,7 +19074,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19355,10 +19358,10 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.54</v>
@@ -19483,7 +19486,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19689,7 +19692,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19895,7 +19898,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20101,7 +20104,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -21337,7 +21340,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21543,7 +21546,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21955,7 +21958,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22161,7 +22164,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>1.94</v>
@@ -22239,7 +22242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22367,7 +22370,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>2.55</v>
@@ -22654,7 +22657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.51</v>
@@ -23809,7 +23812,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -24015,7 +24018,7 @@
         <v>101</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24221,7 +24224,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>2.1</v>
@@ -24299,7 +24302,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ112">
         <v>0.8100000000000001</v>
@@ -24427,7 +24430,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24839,7 +24842,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25457,7 +25460,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -25538,7 +25541,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>1.86</v>
@@ -26281,7 +26284,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>6.04</v>
@@ -27105,7 +27108,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27517,7 +27520,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -28007,7 +28010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28135,7 +28138,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>2.28</v>
@@ -28216,7 +28219,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.48</v>
@@ -28341,7 +28344,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -28547,7 +28550,7 @@
         <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>2.05</v>
@@ -28959,7 +28962,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29165,7 +29168,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29371,7 +29374,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29577,7 +29580,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29658,7 +29661,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.57</v>
@@ -29783,7 +29786,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>4.2</v>
@@ -30479,7 +30482,7 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -30813,7 +30816,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>2.2</v>
@@ -31431,7 +31434,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31637,7 +31640,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31843,7 +31846,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32049,7 +32052,7 @@
         <v>82</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32130,7 +32133,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.43</v>
@@ -32255,7 +32258,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32461,7 +32464,7 @@
         <v>107</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>2.3</v>
@@ -32539,7 +32542,7 @@
         <v>1.08</v>
       </c>
       <c r="AP152">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32954,7 +32957,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR154">
         <v>1.44</v>
@@ -33079,7 +33082,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33491,7 +33494,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33697,7 +33700,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33903,7 +33906,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -34109,7 +34112,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34315,7 +34318,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34521,7 +34524,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -35139,7 +35142,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>2.73</v>
@@ -35345,7 +35348,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35551,7 +35554,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35629,7 +35632,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ167">
         <v>1.19</v>
@@ -35757,7 +35760,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36169,7 +36172,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36456,7 +36459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR171">
         <v>1.54</v>
@@ -36581,7 +36584,7 @@
         <v>168</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>2.47</v>
@@ -36787,7 +36790,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36865,7 +36868,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
         <v>2.38</v>
@@ -36993,7 +36996,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37611,7 +37614,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38023,7 +38026,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38435,7 +38438,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38641,7 +38644,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q182">
         <v>2.5</v>
@@ -39053,7 +39056,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>4.5</v>
@@ -39259,7 +39262,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39465,7 +39468,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39749,7 +39752,7 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ187">
         <v>1.75</v>
@@ -40289,7 +40292,7 @@
         <v>82</v>
       </c>
       <c r="P190" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q190">
         <v>2.98</v>
@@ -40495,7 +40498,7 @@
         <v>211</v>
       </c>
       <c r="P191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q191">
         <v>3.38</v>
@@ -40576,7 +40579,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
         <v>1.36</v>
@@ -40701,7 +40704,7 @@
         <v>145</v>
       </c>
       <c r="P192" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q192">
         <v>4.65</v>
@@ -41071,7 +41074,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7900273</v>
+        <v>7901357</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41086,189 +41089,395 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H194" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>1</v>
       </c>
       <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
         <v>3</v>
-      </c>
-      <c r="L194">
-        <v>2</v>
-      </c>
-      <c r="M194">
-        <v>2</v>
-      </c>
-      <c r="N194">
-        <v>4</v>
       </c>
       <c r="O194" t="s">
         <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
         <v>2.4</v>
       </c>
-      <c r="R194">
-        <v>2.2</v>
-      </c>
       <c r="S194">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T194">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U194">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V194">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W194">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X194">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y194">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z194">
-        <v>2.01</v>
+        <v>1.59</v>
       </c>
       <c r="AA194">
-        <v>3.45</v>
+        <v>3.82</v>
       </c>
       <c r="AB194">
-        <v>3.01</v>
+        <v>4.4</v>
       </c>
       <c r="AC194">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE194">
+        <v>1.2</v>
+      </c>
+      <c r="AF194">
+        <v>4.33</v>
+      </c>
+      <c r="AG194">
+        <v>1.6</v>
+      </c>
+      <c r="AH194">
+        <v>2.15</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.12</v>
+      </c>
+      <c r="AL194">
+        <v>1.19</v>
+      </c>
+      <c r="AM194">
+        <v>2.65</v>
+      </c>
+      <c r="AN194">
+        <v>1.59</v>
+      </c>
+      <c r="AO194">
         <v>1.25</v>
       </c>
-      <c r="AF194">
-        <v>3.7</v>
-      </c>
-      <c r="AG194">
-        <v>1.88</v>
-      </c>
-      <c r="AH194">
-        <v>1.82</v>
-      </c>
-      <c r="AI194">
-        <v>1.8</v>
-      </c>
-      <c r="AJ194">
-        <v>1.91</v>
-      </c>
-      <c r="AK194">
-        <v>1.3</v>
-      </c>
-      <c r="AL194">
-        <v>1.28</v>
-      </c>
-      <c r="AM194">
-        <v>1.75</v>
-      </c>
-      <c r="AN194">
-        <v>1.38</v>
-      </c>
-      <c r="AO194">
-        <v>1.16</v>
-      </c>
       <c r="AP194">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AQ194">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AR194">
+        <v>1.62</v>
+      </c>
+      <c r="AS194">
         <v>1.46</v>
       </c>
-      <c r="AS194">
-        <v>1.56</v>
-      </c>
       <c r="AT194">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>2</v>
+      </c>
+      <c r="AW194">
         <v>10</v>
       </c>
-      <c r="AV194">
-        <v>7</v>
-      </c>
-      <c r="AW194">
-        <v>7</v>
-      </c>
       <c r="AX194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY194">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ194">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BA194">
         <v>4</v>
       </c>
       <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>4</v>
+      </c>
+      <c r="BD194">
+        <v>1.35</v>
+      </c>
+      <c r="BE194">
+        <v>9.6</v>
+      </c>
+      <c r="BF194">
+        <v>3.84</v>
+      </c>
+      <c r="BG194">
+        <v>1.26</v>
+      </c>
+      <c r="BH194">
+        <v>3.35</v>
+      </c>
+      <c r="BI194">
+        <v>1.41</v>
+      </c>
+      <c r="BJ194">
+        <v>2.52</v>
+      </c>
+      <c r="BK194">
+        <v>1.75</v>
+      </c>
+      <c r="BL194">
+        <v>1.92</v>
+      </c>
+      <c r="BM194">
+        <v>2.25</v>
+      </c>
+      <c r="BN194">
+        <v>1.57</v>
+      </c>
+      <c r="BO194">
+        <v>2.98</v>
+      </c>
+      <c r="BP194">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7900273</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45797.625</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s">
+        <v>71</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>214</v>
+      </c>
+      <c r="P195" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q195">
+        <v>2.4</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>4</v>
+      </c>
+      <c r="T195">
+        <v>1.36</v>
+      </c>
+      <c r="U195">
+        <v>3</v>
+      </c>
+      <c r="V195">
+        <v>2.63</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>6.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.1</v>
+      </c>
+      <c r="Z195">
+        <v>2.01</v>
+      </c>
+      <c r="AA195">
+        <v>3.45</v>
+      </c>
+      <c r="AB195">
+        <v>3.01</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
+      <c r="AE195">
+        <v>1.25</v>
+      </c>
+      <c r="AF195">
+        <v>3.7</v>
+      </c>
+      <c r="AG195">
+        <v>1.88</v>
+      </c>
+      <c r="AH195">
+        <v>1.82</v>
+      </c>
+      <c r="AI195">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.91</v>
+      </c>
+      <c r="AK195">
+        <v>1.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.28</v>
+      </c>
+      <c r="AM195">
+        <v>1.75</v>
+      </c>
+      <c r="AN195">
+        <v>1.38</v>
+      </c>
+      <c r="AO195">
+        <v>1.16</v>
+      </c>
+      <c r="AP195">
+        <v>1.36</v>
+      </c>
+      <c r="AQ195">
+        <v>1.15</v>
+      </c>
+      <c r="AR195">
+        <v>1.46</v>
+      </c>
+      <c r="AS195">
+        <v>1.56</v>
+      </c>
+      <c r="AT195">
+        <v>3.02</v>
+      </c>
+      <c r="AU195">
+        <v>10</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>8</v>
+      </c>
+      <c r="AY195">
+        <v>17</v>
+      </c>
+      <c r="AZ195">
+        <v>15</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
         <v>11</v>
       </c>
-      <c r="BC194">
+      <c r="BC195">
         <v>15</v>
       </c>
-      <c r="BD194">
+      <c r="BD195">
         <v>1.74</v>
       </c>
-      <c r="BE194">
+      <c r="BE195">
         <v>8.6</v>
       </c>
-      <c r="BF194">
+      <c r="BF195">
         <v>2.41</v>
       </c>
-      <c r="BG194">
+      <c r="BG195">
         <v>1.2</v>
       </c>
-      <c r="BH194">
+      <c r="BH195">
         <v>3.9</v>
       </c>
-      <c r="BI194">
+      <c r="BI195">
         <v>1.3</v>
       </c>
-      <c r="BJ194">
+      <c r="BJ195">
         <v>2.97</v>
       </c>
-      <c r="BK194">
+      <c r="BK195">
         <v>1.56</v>
       </c>
-      <c r="BL194">
+      <c r="BL195">
         <v>2.21</v>
       </c>
-      <c r="BM194">
+      <c r="BM195">
         <v>1.95</v>
       </c>
-      <c r="BN194">
+      <c r="BN195">
         <v>1.76</v>
       </c>
-      <c r="BO194">
+      <c r="BO195">
         <v>2.51</v>
       </c>
-      <c r="BP194">
+      <c r="BP195">
         <v>1.44</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -41227,13 +41227,13 @@
         <v>6</v>
       </c>
       <c r="BA194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD194">
         <v>1.35</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['15', '16']</t>
   </si>
   <si>
+    <t>['10', '26', '82']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -944,6 +947,9 @@
   </si>
   <si>
     <t>['33', '58']</t>
+  </si>
+  <si>
+    <t>['24', '70']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1976,7 +1982,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -2182,7 +2188,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2800,7 +2806,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3293,7 +3299,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3702,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>1.44</v>
@@ -4117,7 +4123,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -4860,7 +4866,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -5272,7 +5278,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5684,7 +5690,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5890,7 +5896,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6302,7 +6308,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>3.9</v>
@@ -6508,7 +6514,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6714,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7126,7 +7132,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7332,7 +7338,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7538,7 +7544,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7950,7 +7956,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8156,7 +8162,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>1.83</v>
@@ -8362,7 +8368,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8440,7 +8446,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35">
         <v>2.38</v>
@@ -8649,7 +8655,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>1.31</v>
@@ -8980,7 +8986,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9186,7 +9192,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>4.36</v>
@@ -9392,7 +9398,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>4.33</v>
@@ -9598,7 +9604,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -10422,7 +10428,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10628,7 +10634,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10834,7 +10840,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>2.48</v>
@@ -10915,7 +10921,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -11040,7 +11046,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>2.49</v>
@@ -11324,7 +11330,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11658,7 +11664,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11864,7 +11870,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12070,7 +12076,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12482,7 +12488,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12688,7 +12694,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12766,7 +12772,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -13100,7 +13106,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13306,7 +13312,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14130,7 +14136,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14211,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR63">
         <v>1.28</v>
@@ -14542,7 +14548,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>1.9</v>
@@ -14623,7 +14629,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR65">
         <v>1.94</v>
@@ -14748,7 +14754,7 @@
         <v>120</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14826,7 +14832,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>1.19</v>
@@ -14954,7 +14960,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15160,7 +15166,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15444,10 +15450,10 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15572,7 +15578,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15778,7 +15784,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -16190,7 +16196,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16808,7 +16814,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17632,7 +17638,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -18044,7 +18050,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18534,7 +18540,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84">
         <v>0.5600000000000001</v>
@@ -19074,7 +19080,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19155,7 +19161,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19358,7 +19364,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -19486,7 +19492,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19692,7 +19698,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19898,7 +19904,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20104,7 +20110,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -21340,7 +21346,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21546,7 +21552,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21627,7 +21633,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
         <v>1.48</v>
@@ -21958,7 +21964,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -22164,7 +22170,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>1.94</v>
@@ -22242,7 +22248,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22370,7 +22376,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>2.55</v>
@@ -23812,7 +23818,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23893,7 +23899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR110">
         <v>1.46</v>
@@ -24018,7 +24024,7 @@
         <v>101</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24224,7 +24230,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>2.1</v>
@@ -24302,7 +24308,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ112">
         <v>0.8100000000000001</v>
@@ -24430,7 +24436,7 @@
         <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24842,7 +24848,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25460,7 +25466,7 @@
         <v>123</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>1.74</v>
@@ -26284,7 +26290,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>6.04</v>
@@ -27108,7 +27114,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27189,7 +27195,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27520,7 +27526,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -28010,7 +28016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28138,7 +28144,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>2.28</v>
@@ -28344,7 +28350,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -28550,7 +28556,7 @@
         <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>2.05</v>
@@ -28837,7 +28843,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134">
         <v>1.78</v>
@@ -28962,7 +28968,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3.27</v>
@@ -29168,7 +29174,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29374,7 +29380,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>2.68</v>
@@ -29580,7 +29586,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29786,7 +29792,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>4.2</v>
@@ -30482,7 +30488,7 @@
         <v>1.73</v>
       </c>
       <c r="AP142">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -30816,7 +30822,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>2.2</v>
@@ -31309,7 +31315,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.92</v>
@@ -31434,7 +31440,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31640,7 +31646,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31846,7 +31852,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32052,7 +32058,7 @@
         <v>82</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32258,7 +32264,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32464,7 +32470,7 @@
         <v>107</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>2.3</v>
@@ -32542,10 +32548,10 @@
         <v>1.08</v>
       </c>
       <c r="AP152">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.76</v>
@@ -33082,7 +33088,7 @@
         <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33494,7 +33500,7 @@
         <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2.38</v>
@@ -33700,7 +33706,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>2.36</v>
@@ -33906,7 +33912,7 @@
         <v>124</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>3.58</v>
@@ -34112,7 +34118,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>2.95</v>
@@ -34318,7 +34324,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.22</v>
@@ -34524,7 +34530,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>3.28</v>
@@ -35142,7 +35148,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>2.73</v>
@@ -35348,7 +35354,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35554,7 +35560,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>2.23</v>
@@ -35632,7 +35638,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ167">
         <v>1.19</v>
@@ -35760,7 +35766,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>2.71</v>
@@ -36172,7 +36178,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>2.51</v>
@@ -36584,7 +36590,7 @@
         <v>168</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>2.47</v>
@@ -36665,7 +36671,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36790,7 +36796,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36868,7 +36874,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
         <v>2.38</v>
@@ -36996,7 +37002,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>2.8</v>
@@ -37614,7 +37620,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38026,7 +38032,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -38438,7 +38444,7 @@
         <v>82</v>
       </c>
       <c r="P181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38644,7 +38650,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q182">
         <v>2.5</v>
@@ -39056,7 +39062,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>4.5</v>
@@ -39262,7 +39268,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39468,7 +39474,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39752,7 +39758,7 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ187">
         <v>1.75</v>
@@ -39961,7 +39967,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR188">
         <v>1.69</v>
@@ -40292,7 +40298,7 @@
         <v>82</v>
       </c>
       <c r="P190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q190">
         <v>2.98</v>
@@ -40498,7 +40504,7 @@
         <v>211</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q191">
         <v>3.38</v>
@@ -40704,7 +40710,7 @@
         <v>145</v>
       </c>
       <c r="P192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q192">
         <v>4.65</v>
@@ -41194,7 +41200,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AQ194">
         <v>1.21</v>
@@ -41322,7 +41328,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41403,7 +41409,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ195">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41479,6 +41485,212 @@
       </c>
       <c r="BP195">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7903142</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45800.54166666666</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>5</v>
+      </c>
+      <c r="O196" t="s">
+        <v>215</v>
+      </c>
+      <c r="P196" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q196">
+        <v>2.2</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>4.75</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.25</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.11</v>
+      </c>
+      <c r="Z196">
+        <v>1.64</v>
+      </c>
+      <c r="AA196">
+        <v>3.58</v>
+      </c>
+      <c r="AB196">
+        <v>4.7</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.23</v>
+      </c>
+      <c r="AF196">
+        <v>3.78</v>
+      </c>
+      <c r="AG196">
+        <v>1.76</v>
+      </c>
+      <c r="AH196">
+        <v>1.94</v>
+      </c>
+      <c r="AI196">
+        <v>1.8</v>
+      </c>
+      <c r="AJ196">
+        <v>1.91</v>
+      </c>
+      <c r="AK196">
+        <v>1.19</v>
+      </c>
+      <c r="AL196">
+        <v>1.24</v>
+      </c>
+      <c r="AM196">
+        <v>2.1</v>
+      </c>
+      <c r="AN196">
+        <v>1.64</v>
+      </c>
+      <c r="AO196">
+        <v>1.15</v>
+      </c>
+      <c r="AP196">
+        <v>1.68</v>
+      </c>
+      <c r="AQ196">
+        <v>1.12</v>
+      </c>
+      <c r="AR196">
+        <v>1.64</v>
+      </c>
+      <c r="AS196">
+        <v>1.58</v>
+      </c>
+      <c r="AT196">
+        <v>3.22</v>
+      </c>
+      <c r="AU196">
+        <v>10</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>11</v>
+      </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
+      <c r="AY196">
+        <v>33</v>
+      </c>
+      <c r="AZ196">
+        <v>7</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>5</v>
+      </c>
+      <c r="BC196">
+        <v>13</v>
+      </c>
+      <c r="BD196">
+        <v>1.59</v>
+      </c>
+      <c r="BE196">
+        <v>8.9</v>
+      </c>
+      <c r="BF196">
+        <v>2.83</v>
+      </c>
+      <c r="BG196">
+        <v>1.19</v>
+      </c>
+      <c r="BH196">
+        <v>3.92</v>
+      </c>
+      <c r="BI196">
+        <v>1.32</v>
+      </c>
+      <c r="BJ196">
+        <v>2.88</v>
+      </c>
+      <c r="BK196">
+        <v>1.64</v>
+      </c>
+      <c r="BL196">
+        <v>2.21</v>
+      </c>
+      <c r="BM196">
+        <v>2.03</v>
+      </c>
+      <c r="BN196">
+        <v>1.76</v>
+      </c>
+      <c r="BO196">
+        <v>2.57</v>
+      </c>
+      <c r="BP196">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
